--- a/python/us_hy_credit.xlsx
+++ b/python/us_hy_credit.xlsx
@@ -13,9 +13,8 @@
     <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$3:$B$524</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$Q$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$R$1:$R$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$3:$B$524</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>US HY Monthly Yield</t>
   </si>
@@ -76,6 +75,9 @@
   </si>
   <si>
     <t>ISM Manufacturing</t>
+  </si>
+  <si>
+    <t>Retail Sales</t>
   </si>
 </sst>
 </file>
@@ -133,12 +135,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,7 +185,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,8 +202,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -215,6 +223,38 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2486,11 +2526,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="87458443"/>
-        <c:axId val="76701521"/>
+        <c:axId val="76294752"/>
+        <c:axId val="99108897"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87458443"/>
+        <c:axId val="76294752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,14 +2566,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76701521"/>
+        <c:crossAx val="99108897"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76701521"/>
+        <c:axId val="99108897"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,7 +2616,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87458443"/>
+        <c:crossAx val="76294752"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3729,11 +3769,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="91751153"/>
-        <c:axId val="38222668"/>
+        <c:axId val="5221430"/>
+        <c:axId val="67244464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91751153"/>
+        <c:axId val="5221430"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3769,14 +3809,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38222668"/>
+        <c:crossAx val="67244464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38222668"/>
+        <c:axId val="67244464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,7 +3859,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91751153"/>
+        <c:crossAx val="5221430"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3847,10 +3887,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3915,7 +3951,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -3924,10 +3960,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q349"/>
+  <dimension ref="A1:R349"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3945,7 +3981,8 @@
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1022" min="15" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3994,8 +4031,11 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7549,57 +7589,60 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="n">
+    <row r="69" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10" t="n">
         <v>34000</v>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="11" t="n">
         <v>0.0078</v>
       </c>
-      <c r="C69" s="3" t="n">
+      <c r="C69" s="12" t="n">
         <v>0.0056</v>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" s="11" t="n">
         <v>0.004</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="11" t="n">
         <v>0.0291</v>
       </c>
-      <c r="F69" s="6" t="n">
+      <c r="F69" s="13" t="n">
         <v>0.0233</v>
       </c>
-      <c r="G69" s="2" t="n">
+      <c r="G69" s="11" t="n">
         <v>0.0188</v>
       </c>
-      <c r="H69" s="7" t="n">
+      <c r="H69" s="14" t="n">
         <v>0.0023340001</v>
       </c>
-      <c r="I69" s="2" t="n">
+      <c r="I69" s="11" t="n">
         <v>0.0338</v>
       </c>
-      <c r="J69" s="2" t="n">
+      <c r="J69" s="11" t="n">
         <v>0.0977216967611758</v>
       </c>
-      <c r="K69" s="8" t="n">
+      <c r="K69" s="15" t="n">
         <v>0.0693088867179821</v>
       </c>
-      <c r="L69" s="2" t="n">
+      <c r="L69" s="11" t="n">
         <v>0.0490702075348057</v>
       </c>
-      <c r="M69" s="2" t="n">
+      <c r="M69" s="11" t="n">
         <v>0.0486514892263701</v>
       </c>
-      <c r="N69" s="3" t="n">
+      <c r="N69" s="12" t="n">
         <v>0.0202386791831764</v>
       </c>
-      <c r="O69" s="0" t="n">
+      <c r="O69" s="16" t="n">
         <v>12.29</v>
       </c>
-      <c r="P69" s="9" t="n">
+      <c r="P69" s="17" t="n">
         <v>0.0084</v>
       </c>
-      <c r="Q69" s="0" t="n">
+      <c r="Q69" s="16" t="n">
         <v>55.8</v>
+      </c>
+      <c r="R69" s="16" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7654,6 +7697,9 @@
       <c r="Q70" s="0" t="n">
         <v>55.2</v>
       </c>
+      <c r="R70" s="0" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
@@ -7707,6 +7753,9 @@
       <c r="Q71" s="0" t="n">
         <v>53.5</v>
       </c>
+      <c r="R71" s="0" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
@@ -7760,6 +7809,9 @@
       <c r="Q72" s="0" t="n">
         <v>50.2</v>
       </c>
+      <c r="R72" s="0" t="n">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
@@ -7813,6 +7865,9 @@
       <c r="Q73" s="0" t="n">
         <v>51.2</v>
       </c>
+      <c r="R73" s="0" t="n">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
@@ -7866,6 +7921,9 @@
       <c r="Q74" s="0" t="n">
         <v>49.6</v>
       </c>
+      <c r="R74" s="0" t="n">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
@@ -7919,6 +7977,9 @@
       <c r="Q75" s="0" t="n">
         <v>50.2</v>
       </c>
+      <c r="R75" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
@@ -7972,6 +8033,9 @@
       <c r="Q76" s="0" t="n">
         <v>50.7</v>
       </c>
+      <c r="R76" s="0" t="n">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
@@ -8025,6 +8089,9 @@
       <c r="Q77" s="0" t="n">
         <v>50.8</v>
       </c>
+      <c r="R77" s="0" t="n">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
@@ -8078,6 +8145,9 @@
       <c r="Q78" s="0" t="n">
         <v>53.4</v>
       </c>
+      <c r="R78" s="0" t="n">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
@@ -8131,6 +8201,9 @@
       <c r="Q79" s="0" t="n">
         <v>53.8</v>
       </c>
+      <c r="R79" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
@@ -8184,6 +8257,9 @@
       <c r="Q80" s="0" t="n">
         <v>55.6</v>
       </c>
+      <c r="R80" s="0" t="n">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
@@ -8237,6 +8313,9 @@
       <c r="Q81" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="R81" s="0" t="n">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
@@ -8290,6 +8369,9 @@
       <c r="Q82" s="0" t="n">
         <v>56.5</v>
       </c>
+      <c r="R82" s="0" t="n">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
@@ -8343,6 +8425,9 @@
       <c r="Q83" s="0" t="n">
         <v>56.9</v>
       </c>
+      <c r="R83" s="0" t="n">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
@@ -8396,6 +8481,9 @@
       <c r="Q84" s="0" t="n">
         <v>57.4</v>
       </c>
+      <c r="R84" s="0" t="n">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
@@ -8449,6 +8537,9 @@
       <c r="Q85" s="0" t="n">
         <v>58.2</v>
       </c>
+      <c r="R85" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
@@ -8502,6 +8593,9 @@
       <c r="Q86" s="0" t="n">
         <v>58.8</v>
       </c>
+      <c r="R86" s="0" t="n">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
@@ -8555,6 +8649,9 @@
       <c r="Q87" s="0" t="n">
         <v>58.5</v>
       </c>
+      <c r="R87" s="0" t="n">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
@@ -8608,6 +8705,9 @@
       <c r="Q88" s="0" t="n">
         <v>58</v>
       </c>
+      <c r="R88" s="0" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
@@ -8661,6 +8761,9 @@
       <c r="Q89" s="0" t="n">
         <v>59</v>
       </c>
+      <c r="R89" s="0" t="n">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
@@ -8714,6 +8817,9 @@
       <c r="Q90" s="0" t="n">
         <v>59.4</v>
       </c>
+      <c r="R90" s="0" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
@@ -8767,6 +8873,9 @@
       <c r="Q91" s="0" t="n">
         <v>59.2</v>
       </c>
+      <c r="R91" s="0" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
@@ -8820,6 +8929,9 @@
       <c r="Q92" s="0" t="n">
         <v>56.1</v>
       </c>
+      <c r="R92" s="0" t="n">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
@@ -8873,6 +8985,9 @@
       <c r="Q93" s="0" t="n">
         <v>57.4</v>
       </c>
+      <c r="R93" s="0" t="n">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
@@ -8926,6 +9041,9 @@
       <c r="Q94" s="0" t="n">
         <v>55.1</v>
       </c>
+      <c r="R94" s="0" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
@@ -8979,6 +9097,9 @@
       <c r="Q95" s="0" t="n">
         <v>52.1</v>
       </c>
+      <c r="R95" s="0" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
@@ -9032,6 +9153,9 @@
       <c r="Q96" s="0" t="n">
         <v>51.5</v>
       </c>
+      <c r="R96" s="0" t="n">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
@@ -9085,6 +9209,9 @@
       <c r="Q97" s="0" t="n">
         <v>46.7</v>
       </c>
+      <c r="R97" s="0" t="n">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
@@ -9138,6 +9265,9 @@
       <c r="Q98" s="0" t="n">
         <v>45.9</v>
       </c>
+      <c r="R98" s="0" t="n">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
@@ -9191,6 +9321,9 @@
       <c r="Q99" s="0" t="n">
         <v>50.7</v>
       </c>
+      <c r="R99" s="0" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
@@ -9244,6 +9377,9 @@
       <c r="Q100" s="0" t="n">
         <v>47.1</v>
       </c>
+      <c r="R100" s="0" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
@@ -9297,6 +9433,9 @@
       <c r="Q101" s="0" t="n">
         <v>48.1</v>
       </c>
+      <c r="R101" s="0" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
@@ -9350,6 +9489,9 @@
       <c r="Q102" s="0" t="n">
         <v>46.7</v>
       </c>
+      <c r="R102" s="0" t="n">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
@@ -9403,6 +9545,9 @@
       <c r="Q103" s="0" t="n">
         <v>45.9</v>
       </c>
+      <c r="R103" s="0" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
@@ -9456,6 +9601,9 @@
       <c r="Q104" s="0" t="n">
         <v>46.2</v>
       </c>
+      <c r="R104" s="0" t="n">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
@@ -9509,6 +9657,9 @@
       <c r="Q105" s="0" t="n">
         <v>45.5</v>
       </c>
+      <c r="R105" s="0" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
@@ -9562,6 +9713,9 @@
       <c r="Q106" s="0" t="n">
         <v>45.9</v>
       </c>
+      <c r="R106" s="0" t="n">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
@@ -9615,6 +9769,9 @@
       <c r="Q107" s="0" t="n">
         <v>46.9</v>
       </c>
+      <c r="R107" s="0" t="n">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
@@ -9668,6 +9825,9 @@
       <c r="Q108" s="0" t="n">
         <v>49.3</v>
       </c>
+      <c r="R108" s="0" t="n">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
@@ -9721,6 +9881,9 @@
       <c r="Q109" s="0" t="n">
         <v>49.1</v>
       </c>
+      <c r="R109" s="0" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
@@ -9774,6 +9937,9 @@
       <c r="Q110" s="0" t="n">
         <v>53.6</v>
       </c>
+      <c r="R110" s="0" t="n">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
@@ -9827,6 +9993,9 @@
       <c r="Q111" s="0" t="n">
         <v>49.7</v>
       </c>
+      <c r="R111" s="0" t="n">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
@@ -9880,6 +10049,9 @@
       <c r="Q112" s="0" t="n">
         <v>51.6</v>
       </c>
+      <c r="R112" s="0" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
@@ -9933,6 +10105,9 @@
       <c r="Q113" s="0" t="n">
         <v>51.1</v>
       </c>
+      <c r="R113" s="0" t="n">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
@@ -9986,6 +10161,9 @@
       <c r="Q114" s="0" t="n">
         <v>50.5</v>
       </c>
+      <c r="R114" s="0" t="n">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
@@ -10039,6 +10217,9 @@
       <c r="Q115" s="0" t="n">
         <v>53</v>
       </c>
+      <c r="R115" s="0" t="n">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
@@ -10092,6 +10273,9 @@
       <c r="Q116" s="0" t="n">
         <v>55.2</v>
       </c>
+      <c r="R116" s="0" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
@@ -10145,6 +10329,9 @@
       <c r="Q117" s="0" t="n">
         <v>53.8</v>
       </c>
+      <c r="R117" s="0" t="n">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
@@ -10198,6 +10385,9 @@
       <c r="Q118" s="0" t="n">
         <v>53.1</v>
       </c>
+      <c r="R118" s="0" t="n">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
@@ -10251,6 +10441,9 @@
       <c r="Q119" s="0" t="n">
         <v>53.8</v>
       </c>
+      <c r="R119" s="0" t="n">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
@@ -10304,6 +10497,9 @@
       <c r="Q120" s="0" t="n">
         <v>53.7</v>
       </c>
+      <c r="R120" s="0" t="n">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="n">
@@ -10357,6 +10553,9 @@
       <c r="Q121" s="0" t="n">
         <v>56.1</v>
       </c>
+      <c r="R121" s="0" t="n">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="n">
@@ -10410,6 +10609,9 @@
       <c r="Q122" s="0" t="n">
         <v>54.9</v>
       </c>
+      <c r="R122" s="0" t="n">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="n">
@@ -10463,6 +10665,9 @@
       <c r="Q123" s="0" t="n">
         <v>57.7</v>
       </c>
+      <c r="R123" s="0" t="n">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="n">
@@ -10516,6 +10721,9 @@
       <c r="Q124" s="0" t="n">
         <v>56.3</v>
       </c>
+      <c r="R124" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="n">
@@ -10569,6 +10777,9 @@
       <c r="Q125" s="0" t="n">
         <v>53.9</v>
       </c>
+      <c r="R125" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="n">
@@ -10622,6 +10833,9 @@
       <c r="Q126" s="0" t="n">
         <v>56.4</v>
       </c>
+      <c r="R126" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="n">
@@ -10675,6 +10889,9 @@
       <c r="Q127" s="0" t="n">
         <v>55.7</v>
       </c>
+      <c r="R127" s="0" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="n">
@@ -10728,6 +10945,9 @@
       <c r="Q128" s="0" t="n">
         <v>54.5</v>
       </c>
+      <c r="R128" s="0" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="n">
@@ -10781,6 +11001,9 @@
       <c r="Q129" s="0" t="n">
         <v>53.8</v>
       </c>
+      <c r="R129" s="0" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="n">
@@ -10834,6 +11057,9 @@
       <c r="Q130" s="0" t="n">
         <v>52.9</v>
       </c>
+      <c r="R130" s="0" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="n">
@@ -10887,6 +11113,9 @@
       <c r="Q131" s="0" t="n">
         <v>52.9</v>
       </c>
+      <c r="R131" s="0" t="n">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="n">
@@ -10940,6 +11169,9 @@
       <c r="Q132" s="0" t="n">
         <v>52.2</v>
       </c>
+      <c r="R132" s="0" t="n">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="n">
@@ -10993,6 +11225,9 @@
       <c r="Q133" s="0" t="n">
         <v>50.9</v>
       </c>
+      <c r="R133" s="0" t="n">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="n">
@@ -11046,6 +11281,9 @@
       <c r="Q134" s="0" t="n">
         <v>48.9</v>
       </c>
+      <c r="R134" s="0" t="n">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="n">
@@ -11099,6 +11337,9 @@
       <c r="Q135" s="0" t="n">
         <v>49.2</v>
       </c>
+      <c r="R135" s="0" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="n">
@@ -11152,6 +11393,9 @@
       <c r="Q136" s="0" t="n">
         <v>49.3</v>
       </c>
+      <c r="R136" s="16" t="n">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="n">
@@ -11205,6 +11449,9 @@
       <c r="Q137" s="0" t="n">
         <v>48.7</v>
       </c>
+      <c r="R137" s="0" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="n">
@@ -11258,6 +11505,9 @@
       <c r="Q138" s="0" t="n">
         <v>48.7</v>
       </c>
+      <c r="R138" s="0" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="n">
@@ -11311,6 +11561,9 @@
       <c r="Q139" s="0" t="n">
         <v>48.2</v>
       </c>
+      <c r="R139" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="n">
@@ -11364,6 +11617,9 @@
       <c r="Q140" s="0" t="n">
         <v>46.8</v>
       </c>
+      <c r="R140" s="0" t="n">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="n">
@@ -11417,6 +11673,9 @@
       <c r="Q141" s="0" t="n">
         <v>50.6</v>
       </c>
+      <c r="R141" s="0" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="n">
@@ -11470,6 +11729,9 @@
       <c r="Q142" s="0" t="n">
         <v>51.7</v>
       </c>
+      <c r="R142" s="0" t="n">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="n">
@@ -11523,6 +11785,9 @@
       <c r="Q143" s="0" t="n">
         <v>52.4</v>
       </c>
+      <c r="R143" s="0" t="n">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="n">
@@ -11576,6 +11841,9 @@
       <c r="Q144" s="0" t="n">
         <v>52.3</v>
       </c>
+      <c r="R144" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="n">
@@ -11629,6 +11897,9 @@
       <c r="Q145" s="0" t="n">
         <v>54.3</v>
       </c>
+      <c r="R145" s="0" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="n">
@@ -11682,6 +11953,9 @@
       <c r="Q146" s="0" t="n">
         <v>55.8</v>
       </c>
+      <c r="R146" s="0" t="n">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="n">
@@ -11735,6 +12009,9 @@
       <c r="Q147" s="0" t="n">
         <v>53.6</v>
       </c>
+      <c r="R147" s="0" t="n">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="n">
@@ -11788,6 +12065,9 @@
       <c r="Q148" s="0" t="n">
         <v>54.8</v>
       </c>
+      <c r="R148" s="0" t="n">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="n">
@@ -11841,6 +12121,9 @@
       <c r="Q149" s="0" t="n">
         <v>57</v>
       </c>
+      <c r="R149" s="0" t="n">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="n">
@@ -11894,6 +12177,9 @@
       <c r="Q150" s="0" t="n">
         <v>57.2</v>
       </c>
+      <c r="R150" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="n">
@@ -11947,6 +12233,9 @@
       <c r="Q151" s="0" t="n">
         <v>58.1</v>
       </c>
+      <c r="R151" s="0" t="n">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="n">
@@ -12000,6 +12289,9 @@
       <c r="Q152" s="0" t="n">
         <v>57.8</v>
       </c>
+      <c r="R152" s="0" t="n">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="n">
@@ -12053,6 +12345,9 @@
       <c r="Q153" s="0" t="n">
         <v>56.7</v>
       </c>
+      <c r="R153" s="0" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="n">
@@ -12106,6 +12401,9 @@
       <c r="Q154" s="0" t="n">
         <v>55.8</v>
       </c>
+      <c r="R154" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="n">
@@ -12159,6 +12457,9 @@
       <c r="Q155" s="0" t="n">
         <v>54.9</v>
       </c>
+      <c r="R155" s="0" t="n">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="n">
@@ -12212,6 +12513,9 @@
       <c r="Q156" s="0" t="n">
         <v>54.7</v>
       </c>
+      <c r="R156" s="0" t="n">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="n">
@@ -12265,6 +12569,9 @@
       <c r="Q157" s="0" t="n">
         <v>53.2</v>
       </c>
+      <c r="R157" s="0" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="n">
@@ -12318,6 +12625,9 @@
       <c r="Q158" s="0" t="n">
         <v>51.4</v>
       </c>
+      <c r="R158" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="n">
@@ -12371,6 +12681,9 @@
       <c r="Q159" s="0" t="n">
         <v>52.5</v>
       </c>
+      <c r="R159" s="0" t="n">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="n">
@@ -12424,6 +12737,9 @@
       <c r="Q160" s="0" t="n">
         <v>49.9</v>
       </c>
+      <c r="R160" s="0" t="n">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="n">
@@ -12477,6 +12793,9 @@
       <c r="Q161" s="0" t="n">
         <v>49.7</v>
       </c>
+      <c r="R161" s="0" t="n">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="n">
@@ -12530,6 +12849,9 @@
       <c r="Q162" s="0" t="n">
         <v>48.7</v>
       </c>
+      <c r="R162" s="0" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="n">
@@ -12583,6 +12905,9 @@
       <c r="Q163" s="0" t="n">
         <v>48.5</v>
       </c>
+      <c r="R163" s="0" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="n">
@@ -12636,6 +12961,9 @@
       <c r="Q164" s="0" t="n">
         <v>43.9</v>
       </c>
+      <c r="R164" s="0" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="n">
@@ -12689,6 +13017,9 @@
       <c r="Q165" s="0" t="n">
         <v>42.3</v>
       </c>
+      <c r="R165" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="n">
@@ -12742,6 +13073,9 @@
       <c r="Q166" s="0" t="n">
         <v>42.1</v>
       </c>
+      <c r="R166" s="0" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="n">
@@ -12795,6 +13129,9 @@
       <c r="Q167" s="0" t="n">
         <v>43.1</v>
       </c>
+      <c r="R167" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="n">
@@ -12848,6 +13185,9 @@
       <c r="Q168" s="0" t="n">
         <v>42.7</v>
       </c>
+      <c r="R168" s="0" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="n">
@@ -12901,6 +13241,9 @@
       <c r="Q169" s="0" t="n">
         <v>41.3</v>
       </c>
+      <c r="R169" s="0" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="n">
@@ -12954,6 +13297,9 @@
       <c r="Q170" s="0" t="n">
         <v>43.2</v>
       </c>
+      <c r="R170" s="0" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="n">
@@ -13007,6 +13353,9 @@
       <c r="Q171" s="0" t="n">
         <v>43.5</v>
       </c>
+      <c r="R171" s="0" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="n">
@@ -13060,6 +13409,9 @@
       <c r="Q172" s="0" t="n">
         <v>46.3</v>
       </c>
+      <c r="R172" s="0" t="n">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="n">
@@ -13113,6 +13465,9 @@
       <c r="Q173" s="0" t="n">
         <v>46.2</v>
       </c>
+      <c r="R173" s="0" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="n">
@@ -13166,6 +13521,9 @@
       <c r="Q174" s="0" t="n">
         <v>40.8</v>
       </c>
+      <c r="R174" s="0" t="n">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="n">
@@ -13219,6 +13577,9 @@
       <c r="Q175" s="0" t="n">
         <v>44.1</v>
       </c>
+      <c r="R175" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="n">
@@ -13272,6 +13633,9 @@
       <c r="Q176" s="0" t="n">
         <v>45.3</v>
       </c>
+      <c r="R176" s="0" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="n">
@@ -13325,6 +13689,9 @@
       <c r="Q177" s="0" t="n">
         <v>47.5</v>
       </c>
+      <c r="R177" s="0" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="n">
@@ -13378,6 +13745,9 @@
       <c r="Q178" s="0" t="n">
         <v>50.7</v>
       </c>
+      <c r="R178" s="0" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="n">
@@ -13431,6 +13801,9 @@
       <c r="Q179" s="0" t="n">
         <v>52.4</v>
       </c>
+      <c r="R179" s="0" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="n">
@@ -13484,6 +13857,9 @@
       <c r="Q180" s="0" t="n">
         <v>52.4</v>
       </c>
+      <c r="R180" s="0" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="n">
@@ -13537,6 +13913,9 @@
       <c r="Q181" s="0" t="n">
         <v>53.1</v>
       </c>
+      <c r="R181" s="0" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="n">
@@ -13590,6 +13969,9 @@
       <c r="Q182" s="0" t="n">
         <v>53.6</v>
       </c>
+      <c r="R182" s="0" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="n">
@@ -13643,6 +14025,9 @@
       <c r="Q183" s="0" t="n">
         <v>50.2</v>
       </c>
+      <c r="R183" s="0" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="n">
@@ -13696,6 +14081,9 @@
       <c r="Q184" s="0" t="n">
         <v>50.3</v>
       </c>
+      <c r="R184" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="n">
@@ -13749,6 +14137,9 @@
       <c r="Q185" s="0" t="n">
         <v>50.5</v>
       </c>
+      <c r="R185" s="0" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="n">
@@ -13802,6 +14193,9 @@
       <c r="Q186" s="0" t="n">
         <v>49</v>
       </c>
+      <c r="R186" s="0" t="n">
+        <v>-1.7</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="n">
@@ -13855,6 +14249,9 @@
       <c r="Q187" s="0" t="n">
         <v>48.5</v>
       </c>
+      <c r="R187" s="0" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="n">
@@ -13908,6 +14305,9 @@
       <c r="Q188" s="0" t="n">
         <v>51.6</v>
       </c>
+      <c r="R188" s="0" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="n">
@@ -13961,6 +14361,9 @@
       <c r="Q189" s="0" t="n">
         <v>51.3</v>
       </c>
+      <c r="R189" s="0" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="n">
@@ -14014,6 +14417,9 @@
       <c r="Q190" s="0" t="n">
         <v>48.8</v>
       </c>
+      <c r="R190" s="0" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="n">
@@ -14067,6 +14473,9 @@
       <c r="Q191" s="0" t="n">
         <v>46.3</v>
       </c>
+      <c r="R191" s="0" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="n">
@@ -14120,6 +14529,9 @@
       <c r="Q192" s="0" t="n">
         <v>46.1</v>
       </c>
+      <c r="R192" s="0" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="n">
@@ -14173,6 +14585,9 @@
       <c r="Q193" s="0" t="n">
         <v>49</v>
       </c>
+      <c r="R193" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="n">
@@ -14226,6 +14641,9 @@
       <c r="Q194" s="0" t="n">
         <v>49</v>
       </c>
+      <c r="R194" s="0" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="n">
@@ -14279,6 +14697,9 @@
       <c r="Q195" s="0" t="n">
         <v>51</v>
       </c>
+      <c r="R195" s="0" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="n">
@@ -14332,6 +14753,9 @@
       <c r="Q196" s="0" t="n">
         <v>53.2</v>
       </c>
+      <c r="R196" s="0" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="n">
@@ -14385,6 +14809,9 @@
       <c r="Q197" s="0" t="n">
         <v>52.4</v>
       </c>
+      <c r="R197" s="0" t="n">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="n">
@@ -14438,6 +14865,9 @@
       <c r="Q198" s="0" t="n">
         <v>55.2</v>
       </c>
+      <c r="R198" s="0" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="n">
@@ -14491,6 +14921,9 @@
       <c r="Q199" s="0" t="n">
         <v>58.4</v>
       </c>
+      <c r="R199" s="0" t="n">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="n">
@@ -14544,6 +14977,9 @@
       <c r="Q200" s="0" t="n">
         <v>60.1</v>
       </c>
+      <c r="R200" s="0" t="n">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="n">
@@ -14597,6 +15033,9 @@
       <c r="Q201" s="0" t="n">
         <v>60.8</v>
       </c>
+      <c r="R201" s="0" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="n">
@@ -14650,6 +15089,9 @@
       <c r="Q202" s="0" t="n">
         <v>59.9</v>
       </c>
+      <c r="R202" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="n">
@@ -14703,6 +15145,9 @@
       <c r="Q203" s="0" t="n">
         <v>60.6</v>
       </c>
+      <c r="R203" s="0" t="n">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="n">
@@ -14756,6 +15201,9 @@
       <c r="Q204" s="0" t="n">
         <v>60.6</v>
       </c>
+      <c r="R204" s="0" t="n">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="n">
@@ -14809,6 +15257,9 @@
       <c r="Q205" s="0" t="n">
         <v>61.4</v>
       </c>
+      <c r="R205" s="0" t="n">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="n">
@@ -14862,6 +15313,9 @@
       <c r="Q206" s="0" t="n">
         <v>60.5</v>
       </c>
+      <c r="R206" s="0" t="n">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="n">
@@ -14915,6 +15369,9 @@
       <c r="Q207" s="0" t="n">
         <v>59.9</v>
       </c>
+      <c r="R207" s="0" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="n">
@@ -14968,6 +15425,9 @@
       <c r="Q208" s="0" t="n">
         <v>58.5</v>
       </c>
+      <c r="R208" s="0" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="n">
@@ -15021,6 +15481,9 @@
       <c r="Q209" s="0" t="n">
         <v>57.4</v>
       </c>
+      <c r="R209" s="0" t="n">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="n">
@@ -15074,6 +15537,9 @@
       <c r="Q210" s="0" t="n">
         <v>56.3</v>
       </c>
+      <c r="R210" s="0" t="n">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="n">
@@ -15127,6 +15593,9 @@
       <c r="Q211" s="0" t="n">
         <v>56.2</v>
       </c>
+      <c r="R211" s="0" t="n">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="n">
@@ -15180,6 +15649,9 @@
       <c r="Q212" s="0" t="n">
         <v>57.2</v>
       </c>
+      <c r="R212" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="n">
@@ -15233,6 +15705,9 @@
       <c r="Q213" s="0" t="n">
         <v>56.8</v>
       </c>
+      <c r="R213" s="0" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="n">
@@ -15286,6 +15761,9 @@
       <c r="Q214" s="0" t="n">
         <v>55.5</v>
       </c>
+      <c r="R214" s="0" t="n">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="n">
@@ -15339,6 +15817,9 @@
       <c r="Q215" s="0" t="n">
         <v>55.2</v>
       </c>
+      <c r="R215" s="0" t="n">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="n">
@@ -15392,6 +15873,9 @@
       <c r="Q216" s="0" t="n">
         <v>52.2</v>
       </c>
+      <c r="R216" s="0" t="n">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="n">
@@ -15445,6 +15929,9 @@
       <c r="Q217" s="0" t="n">
         <v>50.8</v>
       </c>
+      <c r="R217" s="0" t="n">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="n">
@@ -15498,6 +15985,9 @@
       <c r="Q218" s="0" t="n">
         <v>52.4</v>
       </c>
+      <c r="R218" s="0" t="n">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="n">
@@ -15551,6 +16041,9 @@
       <c r="Q219" s="0" t="n">
         <v>52.8</v>
       </c>
+      <c r="R219" s="0" t="n">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="n">
@@ -15604,6 +16097,9 @@
       <c r="Q220" s="0" t="n">
         <v>52.4</v>
       </c>
+      <c r="R220" s="0" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="n">
@@ -15657,6 +16153,9 @@
       <c r="Q221" s="0" t="n">
         <v>56.8</v>
       </c>
+      <c r="R221" s="0" t="n">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="n">
@@ -15710,6 +16209,9 @@
       <c r="Q222" s="0" t="n">
         <v>57.2</v>
       </c>
+      <c r="R222" s="0" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="n">
@@ -15763,6 +16265,9 @@
       <c r="Q223" s="0" t="n">
         <v>56.7</v>
       </c>
+      <c r="R223" s="0" t="n">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="n">
@@ -15816,6 +16321,9 @@
       <c r="Q224" s="0" t="n">
         <v>55.1</v>
       </c>
+      <c r="R224" s="0" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="n">
@@ -15869,6 +16377,9 @@
       <c r="Q225" s="0" t="n">
         <v>55</v>
       </c>
+      <c r="R225" s="0" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="n">
@@ -15922,6 +16433,9 @@
       <c r="Q226" s="0" t="n">
         <v>55.8</v>
       </c>
+      <c r="R226" s="0" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="n">
@@ -15975,6 +16489,9 @@
       <c r="Q227" s="0" t="n">
         <v>54.3</v>
       </c>
+      <c r="R227" s="0" t="n">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="n">
@@ -16028,6 +16545,9 @@
       <c r="Q228" s="0" t="n">
         <v>55.2</v>
       </c>
+      <c r="R228" s="0" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="n">
@@ -16081,6 +16601,9 @@
       <c r="Q229" s="0" t="n">
         <v>53.7</v>
       </c>
+      <c r="R229" s="0" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="n">
@@ -16134,6 +16657,9 @@
       <c r="Q230" s="0" t="n">
         <v>52</v>
       </c>
+      <c r="R230" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="n">
@@ -16187,6 +16713,9 @@
       <c r="Q231" s="0" t="n">
         <v>53</v>
       </c>
+      <c r="R231" s="0" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="n">
@@ -16240,6 +16769,9 @@
       <c r="Q232" s="0" t="n">
         <v>53.7</v>
       </c>
+      <c r="R232" s="0" t="n">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="n">
@@ -16293,6 +16825,9 @@
       <c r="Q233" s="0" t="n">
         <v>52.2</v>
       </c>
+      <c r="R233" s="0" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="n">
@@ -16346,6 +16881,9 @@
       <c r="Q234" s="0" t="n">
         <v>51.4</v>
       </c>
+      <c r="R234" s="0" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="n">
@@ -16399,6 +16937,9 @@
       <c r="Q235" s="0" t="n">
         <v>50.3</v>
       </c>
+      <c r="R235" s="0" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="n">
@@ -16452,6 +16993,9 @@
       <c r="Q236" s="0" t="n">
         <v>51.4</v>
       </c>
+      <c r="R236" s="0" t="n">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="n">
@@ -16505,6 +17049,9 @@
       <c r="Q237" s="0" t="n">
         <v>49.5</v>
       </c>
+      <c r="R237" s="0" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="n">
@@ -16558,6 +17105,9 @@
       <c r="Q238" s="0" t="n">
         <v>51.9</v>
       </c>
+      <c r="R238" s="0" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="n">
@@ -16611,6 +17161,9 @@
       <c r="Q239" s="0" t="n">
         <v>50.7</v>
       </c>
+      <c r="R239" s="0" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="n">
@@ -16664,6 +17217,9 @@
       <c r="Q240" s="0" t="n">
         <v>52.6</v>
       </c>
+      <c r="R240" s="0" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="n">
@@ -16717,6 +17273,9 @@
       <c r="Q241" s="0" t="n">
         <v>52.5</v>
       </c>
+      <c r="R241" s="0" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="n">
@@ -16770,6 +17329,9 @@
       <c r="Q242" s="0" t="n">
         <v>52.6</v>
       </c>
+      <c r="R242" s="0" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="n">
@@ -16823,6 +17385,9 @@
       <c r="Q243" s="0" t="n">
         <v>52.4</v>
       </c>
+      <c r="R243" s="0" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="n">
@@ -16876,6 +17441,9 @@
       <c r="Q244" s="0" t="n">
         <v>50.9</v>
       </c>
+      <c r="R244" s="0" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="n">
@@ -16929,6 +17497,9 @@
       <c r="Q245" s="0" t="n">
         <v>51</v>
       </c>
+      <c r="R245" s="0" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="n">
@@ -16982,6 +17553,9 @@
       <c r="Q246" s="0" t="n">
         <v>51.1</v>
       </c>
+      <c r="R246" s="0" t="n">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="n">
@@ -17035,6 +17609,9 @@
       <c r="Q247" s="0" t="n">
         <v>50.5</v>
       </c>
+      <c r="R247" s="0" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="n">
@@ -17088,6 +17665,9 @@
       <c r="Q248" s="0" t="n">
         <v>49</v>
       </c>
+      <c r="R248" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="n">
@@ -17141,6 +17721,9 @@
       <c r="Q249" s="0" t="n">
         <v>50.3</v>
       </c>
+      <c r="R249" s="0" t="n">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="n">
@@ -17194,6 +17777,9 @@
       <c r="Q250" s="0" t="n">
         <v>47.6</v>
       </c>
+      <c r="R250" s="0" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="n">
@@ -17247,6 +17833,9 @@
       <c r="Q251" s="0" t="n">
         <v>48.3</v>
       </c>
+      <c r="R251" s="0" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="n">
@@ -17300,6 +17889,9 @@
       <c r="Q252" s="0" t="n">
         <v>48.8</v>
       </c>
+      <c r="R252" s="0" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="n">
@@ -17353,6 +17945,9 @@
       <c r="Q253" s="0" t="n">
         <v>48.8</v>
       </c>
+      <c r="R253" s="0" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="n">
@@ -17406,6 +18001,9 @@
       <c r="Q254" s="0" t="n">
         <v>49.8</v>
       </c>
+      <c r="R254" s="0" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="n">
@@ -17459,6 +18057,9 @@
       <c r="Q255" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="R255" s="0" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="n">
@@ -17512,6 +18113,9 @@
       <c r="Q256" s="0" t="n">
         <v>49.2</v>
       </c>
+      <c r="R256" s="0" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="n">
@@ -17565,6 +18169,9 @@
       <c r="Q257" s="0" t="n">
         <v>44.8</v>
       </c>
+      <c r="R257" s="0" t="n">
+        <v>-1.9</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="n">
@@ -17618,6 +18225,9 @@
       <c r="Q258" s="0" t="n">
         <v>38.9</v>
       </c>
+      <c r="R258" s="0" t="n">
+        <v>-5.9</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="n">
@@ -17671,6 +18281,9 @@
       <c r="Q259" s="0" t="n">
         <v>36.5</v>
       </c>
+      <c r="R259" s="0" t="n">
+        <v>-10.2</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="n">
@@ -17724,6 +18337,9 @@
       <c r="Q260" s="0" t="n">
         <v>33.1</v>
       </c>
+      <c r="R260" s="0" t="n">
+        <v>-11.5</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="n">
@@ -17777,6 +18393,9 @@
       <c r="Q261" s="0" t="n">
         <v>34.9</v>
       </c>
+      <c r="R261" s="0" t="n">
+        <v>-10.2</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="n">
@@ -17830,6 +18449,9 @@
       <c r="Q262" s="0" t="n">
         <v>35.5</v>
       </c>
+      <c r="R262" s="0" t="n">
+        <v>-9.7</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="n">
@@ -17883,6 +18505,9 @@
       <c r="Q263" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="R263" s="0" t="n">
+        <v>-11.2</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="n">
@@ -17936,6 +18561,9 @@
       <c r="Q264" s="0" t="n">
         <v>39.5</v>
       </c>
+      <c r="R264" s="0" t="n">
+        <v>-11.4</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="n">
@@ -17989,6 +18617,9 @@
       <c r="Q265" s="0" t="n">
         <v>41.7</v>
       </c>
+      <c r="R265" s="0" t="n">
+        <v>-11</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="n">
@@ -18042,6 +18673,9 @@
       <c r="Q266" s="0" t="n">
         <v>45.8</v>
       </c>
+      <c r="R266" s="0" t="n">
+        <v>-9.8</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="5" t="n">
@@ -18095,6 +18729,9 @@
       <c r="Q267" s="0" t="n">
         <v>49.9</v>
       </c>
+      <c r="R267" s="0" t="n">
+        <v>-9.2</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="n">
@@ -18148,6 +18785,9 @@
       <c r="Q268" s="0" t="n">
         <v>53.5</v>
       </c>
+      <c r="R268" s="0" t="n">
+        <v>-6.8</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5" t="n">
@@ -18201,6 +18841,9 @@
       <c r="Q269" s="0" t="n">
         <v>54.4</v>
       </c>
+      <c r="R269" s="0" t="n">
+        <v>-7.6</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="n">
@@ -18254,6 +18897,9 @@
       <c r="Q270" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="R270" s="0" t="n">
+        <v>-3.2</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="n">
@@ -18307,6 +18953,9 @@
       <c r="Q271" s="0" t="n">
         <v>54.4</v>
       </c>
+      <c r="R271" s="0" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="n">
@@ -18360,6 +19009,9 @@
       <c r="Q272" s="0" t="n">
         <v>55.3</v>
       </c>
+      <c r="R272" s="0" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="n">
@@ -18413,6 +19065,9 @@
       <c r="Q273" s="0" t="n">
         <v>57.2</v>
       </c>
+      <c r="R273" s="0" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="n">
@@ -18466,6 +19121,9 @@
       <c r="Q274" s="0" t="n">
         <v>55.8</v>
       </c>
+      <c r="R274" s="0" t="n">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="n">
@@ -18519,6 +19177,9 @@
       <c r="Q275" s="0" t="n">
         <v>58.8</v>
       </c>
+      <c r="R275" s="0" t="n">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="n">
@@ -18572,6 +19233,9 @@
       <c r="Q276" s="0" t="n">
         <v>58.1</v>
       </c>
+      <c r="R276" s="0" t="n">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="n">
@@ -18625,6 +19289,9 @@
       <c r="Q277" s="0" t="n">
         <v>58.3</v>
       </c>
+      <c r="R277" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="n">
@@ -18678,6 +19345,9 @@
       <c r="Q278" s="0" t="n">
         <v>56.4</v>
       </c>
+      <c r="R278" s="0" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="5" t="n">
@@ -18731,6 +19401,9 @@
       <c r="Q279" s="0" t="n">
         <v>56.4</v>
       </c>
+      <c r="R279" s="0" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="n">
@@ -18784,6 +19457,9 @@
       <c r="Q280" s="0" t="n">
         <v>58</v>
       </c>
+      <c r="R280" s="0" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="n">
@@ -18837,6 +19513,9 @@
       <c r="Q281" s="0" t="n">
         <v>56.3</v>
       </c>
+      <c r="R281" s="0" t="n">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="n">
@@ -18890,6 +19569,9 @@
       <c r="Q282" s="0" t="n">
         <v>57.7</v>
       </c>
+      <c r="R282" s="0" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="n">
@@ -18943,6 +19625,9 @@
       <c r="Q283" s="0" t="n">
         <v>57.6</v>
       </c>
+      <c r="R283" s="0" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="n">
@@ -18996,6 +19681,9 @@
       <c r="Q284" s="0" t="n">
         <v>57.5</v>
       </c>
+      <c r="R284" s="0" t="n">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="n">
@@ -19049,6 +19737,9 @@
       <c r="Q285" s="0" t="n">
         <v>59.3</v>
       </c>
+      <c r="R285" s="0" t="n">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="n">
@@ -19102,6 +19793,9 @@
       <c r="Q286" s="0" t="n">
         <v>59.9</v>
       </c>
+      <c r="R286" s="0" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="n">
@@ -19155,6 +19849,9 @@
       <c r="Q287" s="0" t="n">
         <v>59.2</v>
       </c>
+      <c r="R287" s="0" t="n">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="n">
@@ -19208,6 +19905,9 @@
       <c r="Q288" s="0" t="n">
         <v>59.4</v>
       </c>
+      <c r="R288" s="0" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="n">
@@ -19261,6 +19961,9 @@
       <c r="Q289" s="0" t="n">
         <v>53.9</v>
       </c>
+      <c r="R289" s="0" t="n">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="n">
@@ -19314,6 +20017,9 @@
       <c r="Q290" s="0" t="n">
         <v>56.2</v>
       </c>
+      <c r="R290" s="0" t="n">
+        <v>8.3</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="n">
@@ -19367,6 +20073,9 @@
       <c r="Q291" s="0" t="n">
         <v>52.9</v>
       </c>
+      <c r="R291" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="n">
@@ -19420,6 +20129,9 @@
       <c r="Q292" s="0" t="n">
         <v>52.8</v>
       </c>
+      <c r="R292" s="0" t="n">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="n">
@@ -19473,6 +20185,9 @@
       <c r="Q293" s="0" t="n">
         <v>52.7</v>
       </c>
+      <c r="R293" s="0" t="n">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="n">
@@ -19526,6 +20241,9 @@
       <c r="Q294" s="0" t="n">
         <v>51.4</v>
       </c>
+      <c r="R294" s="0" t="n">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="n">
@@ -19579,6 +20297,9 @@
       <c r="Q295" s="0" t="n">
         <v>51.5</v>
       </c>
+      <c r="R295" s="0" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="n">
@@ -19632,6 +20353,9 @@
       <c r="Q296" s="0" t="n">
         <v>52.6</v>
       </c>
+      <c r="R296" s="0" t="n">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="n">
@@ -19685,6 +20409,9 @@
       <c r="Q297" s="0" t="n">
         <v>53.1</v>
       </c>
+      <c r="R297" s="0" t="n">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="n">
@@ -19738,6 +20465,9 @@
       <c r="Q298" s="0" t="n">
         <v>53.5</v>
       </c>
+      <c r="R298" s="0" t="n">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="n">
@@ -19791,6 +20521,9 @@
       <c r="Q299" s="0" t="n">
         <v>53.6</v>
       </c>
+      <c r="R299" s="0" t="n">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="5" t="n">
@@ -19844,6 +20577,9 @@
       <c r="Q300" s="0" t="n">
         <v>54.3</v>
       </c>
+      <c r="R300" s="0" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="n">
@@ -19897,6 +20633,9 @@
       <c r="Q301" s="0" t="n">
         <v>53.4</v>
       </c>
+      <c r="R301" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="n">
@@ -19950,6 +20689,9 @@
       <c r="Q302" s="0" t="n">
         <v>50.7</v>
       </c>
+      <c r="R302" s="0" t="n">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="n">
@@ -20003,6 +20745,9 @@
       <c r="Q303" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="R303" s="0" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="n">
@@ -20056,6 +20801,9 @@
       <c r="Q304" s="0" t="n">
         <v>50.7</v>
       </c>
+      <c r="R304" s="0" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="n">
@@ -20109,6 +20857,9 @@
       <c r="Q305" s="0" t="n">
         <v>51.8</v>
       </c>
+      <c r="R305" s="0" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="n">
@@ -20162,6 +20913,9 @@
       <c r="Q306" s="0" t="n">
         <v>50.5</v>
       </c>
+      <c r="R306" s="0" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="n">
@@ -20215,6 +20969,9 @@
       <c r="Q307" s="0" t="n">
         <v>48.8</v>
       </c>
+      <c r="R307" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="5" t="n">
@@ -20268,6 +21025,9 @@
       <c r="Q308" s="0" t="n">
         <v>49.8</v>
       </c>
+      <c r="R308" s="0" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="n">
@@ -20321,6 +21081,9 @@
       <c r="Q309" s="0" t="n">
         <v>52.9</v>
       </c>
+      <c r="R309" s="0" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="n">
@@ -20374,6 +21137,9 @@
       <c r="Q310" s="0" t="n">
         <v>54.6</v>
       </c>
+      <c r="R310" s="0" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="n">
@@ -20427,6 +21193,9 @@
       <c r="Q311" s="0" t="n">
         <v>52.5</v>
       </c>
+      <c r="R311" s="0" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="n">
@@ -20480,6 +21249,9 @@
       <c r="Q312" s="0" t="n">
         <v>50.4</v>
       </c>
+      <c r="R312" s="0" t="n">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="n">
@@ -20533,6 +21305,9 @@
       <c r="Q313" s="0" t="n">
         <v>50.2</v>
       </c>
+      <c r="R313" s="0" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="n">
@@ -20586,6 +21361,9 @@
       <c r="Q314" s="0" t="n">
         <v>52.3</v>
       </c>
+      <c r="R314" s="0" t="n">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="n">
@@ -20639,6 +21417,9 @@
       <c r="Q315" s="0" t="n">
         <v>53.8</v>
       </c>
+      <c r="R315" s="0" t="n">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="n">
@@ -20692,6 +21473,9 @@
       <c r="Q316" s="0" t="n">
         <v>55.6</v>
       </c>
+      <c r="R316" s="0" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5" t="n">
@@ -20745,6 +21529,9 @@
       <c r="Q317" s="0" t="n">
         <v>55.4</v>
       </c>
+      <c r="R317" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="n">
@@ -20798,6 +21585,9 @@
       <c r="Q318" s="0" t="n">
         <v>55.4</v>
       </c>
+      <c r="R318" s="0" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="n">
@@ -20851,6 +21641,9 @@
       <c r="Q319" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="R319" s="0" t="n">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="n">
@@ -20904,6 +21697,9 @@
       <c r="Q320" s="0" t="n">
         <v>55.9</v>
       </c>
+      <c r="R320" s="0" t="n">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="n">
@@ -20957,6 +21753,9 @@
       <c r="Q321" s="0" t="n">
         <v>52.1</v>
       </c>
+      <c r="R321" s="0" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5" t="n">
@@ -21010,6 +21809,9 @@
       <c r="Q322" s="0" t="n">
         <v>54.8</v>
       </c>
+      <c r="R322" s="0" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="n">
@@ -21063,6 +21865,9 @@
       <c r="Q323" s="0" t="n">
         <v>55.1</v>
       </c>
+      <c r="R323" s="0" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="n">
@@ -21116,6 +21921,9 @@
       <c r="Q324" s="0" t="n">
         <v>55.4</v>
       </c>
+      <c r="R324" s="0" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="n">
@@ -21169,6 +21977,9 @@
       <c r="Q325" s="0" t="n">
         <v>55.8</v>
       </c>
+      <c r="R325" s="0" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="n">
@@ -21222,6 +22033,9 @@
       <c r="Q326" s="0" t="n">
         <v>55.3</v>
       </c>
+      <c r="R326" s="0" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="n">
@@ -21275,6 +22089,9 @@
       <c r="Q327" s="0" t="n">
         <v>55.6</v>
       </c>
+      <c r="R327" s="0" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="n">
@@ -21328,6 +22145,9 @@
       <c r="Q328" s="0" t="n">
         <v>58.1</v>
       </c>
+      <c r="R328" s="0" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="n">
@@ -21381,6 +22201,9 @@
       <c r="Q329" s="0" t="n">
         <v>55.8</v>
       </c>
+      <c r="R329" s="0" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="n">
@@ -21434,6 +22257,9 @@
       <c r="Q330" s="0" t="n">
         <v>57.3</v>
       </c>
+      <c r="R330" s="0" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="n">
@@ -21487,6 +22313,9 @@
       <c r="Q331" s="0" t="n">
         <v>57.5</v>
       </c>
+      <c r="R331" s="0" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="n">
@@ -21540,6 +22369,9 @@
       <c r="Q332" s="0" t="n">
         <v>54.9</v>
       </c>
+      <c r="R332" s="0" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="n">
@@ -21593,6 +22425,9 @@
       <c r="Q333" s="0" t="n">
         <v>53.9</v>
       </c>
+      <c r="R333" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="n">
@@ -21646,6 +22481,9 @@
       <c r="Q334" s="0" t="n">
         <v>53.3</v>
       </c>
+      <c r="R334" s="0" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="n">
@@ -21699,6 +22537,9 @@
       <c r="Q335" s="0" t="n">
         <v>52.3</v>
       </c>
+      <c r="R335" s="0" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="n">
@@ -21752,6 +22593,9 @@
       <c r="Q336" s="0" t="n">
         <v>51.6</v>
       </c>
+      <c r="R336" s="0" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="n">
@@ -21805,6 +22649,9 @@
       <c r="Q337" s="0" t="n">
         <v>53.1</v>
       </c>
+      <c r="R337" s="0" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="n">
@@ -21858,6 +22705,9 @@
       <c r="Q338" s="0" t="n">
         <v>53.1</v>
       </c>
+      <c r="R338" s="0" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="n">
@@ -21911,6 +22761,9 @@
       <c r="Q339" s="0" t="n">
         <v>51.9</v>
       </c>
+      <c r="R339" s="0" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="n">
@@ -21964,6 +22817,9 @@
       <c r="Q340" s="0" t="n">
         <v>51</v>
       </c>
+      <c r="R340" s="0" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5" t="n">
@@ -22017,6 +22873,9 @@
       <c r="Q341" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="R341" s="0" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5" t="n">
@@ -22070,6 +22929,9 @@
       <c r="Q342" s="0" t="n">
         <v>49.4</v>
       </c>
+      <c r="R342" s="0" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="n">
@@ -22123,6 +22985,9 @@
       <c r="Q343" s="0" t="n">
         <v>48.4</v>
       </c>
+      <c r="R343" s="0" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="n">
@@ -22176,6 +23041,9 @@
       <c r="Q344" s="0" t="n">
         <v>48</v>
       </c>
+      <c r="R344" s="0" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="n">
@@ -22229,6 +23097,9 @@
       <c r="Q345" s="0" t="n">
         <v>48.2</v>
       </c>
+      <c r="R345" s="0" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="n">
@@ -22282,6 +23153,9 @@
       <c r="Q346" s="0" t="n">
         <v>49.5</v>
       </c>
+      <c r="R346" s="0" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="n">
@@ -22335,6 +23209,9 @@
       <c r="Q347" s="0" t="n">
         <v>51.8</v>
       </c>
+      <c r="R347" s="0" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="n">
@@ -22388,6 +23265,9 @@
       <c r="Q348" s="0" t="n">
         <v>50.8</v>
       </c>
+      <c r="R348" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="n">
@@ -22441,9 +23321,11 @@
       <c r="Q349" s="0" t="n">
         <v>51.3</v>
       </c>
+      <c r="R349" s="0" t="n">
+        <v>2.2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="Q1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -22451,7 +23333,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22506,7 +23387,7 @@
       <c r="C3" s="2" t="n">
         <v>0.0021</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="18" t="n">
         <f aca="false">B2-C2</f>
         <v>0.0012</v>
       </c>
@@ -22529,7 +23410,7 @@
       <c r="C4" s="2" t="n">
         <v>-0.0026</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="18" t="n">
         <f aca="false">B3-C3</f>
         <v>0.0006</v>
       </c>
@@ -22572,7 +23453,7 @@
       <c r="C5" s="2" t="n">
         <v>-0.0124</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="18" t="n">
         <f aca="false">B4-C4</f>
         <v>0.0088</v>
       </c>
@@ -22615,7 +23496,7 @@
       <c r="C6" s="2" t="n">
         <v>0.0298</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="18" t="n">
         <f aca="false">B5-C5</f>
         <v>-0.0191</v>
       </c>
@@ -22658,7 +23539,7 @@
       <c r="C7" s="2" t="n">
         <v>0.0058</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="18" t="n">
         <f aca="false">B6-C6</f>
         <v>-0.0625</v>
       </c>
@@ -22701,7 +23582,7 @@
       <c r="C8" s="2" t="n">
         <v>0.0095</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="18" t="n">
         <f aca="false">B7-C7</f>
         <v>0.023</v>
       </c>
@@ -22733,11 +23614,11 @@
         <f aca="false">J8-1</f>
         <v>0.0421930399940929</v>
       </c>
-      <c r="L8" s="11" t="n">
+      <c r="L8" s="19" t="n">
         <f aca="false" t="array" ref="L8:L8">SUMPRODUCT(G2:G8)+1-1</f>
         <v>0.00269999999999992</v>
       </c>
-      <c r="M8" s="11" t="n">
+      <c r="M8" s="19" t="n">
         <f aca="false" t="array" ref="M8:M8">SUMPRODUCT(H2:H8)+1-1</f>
         <v>0.0410999999999999</v>
       </c>
@@ -22752,7 +23633,7 @@
       <c r="C9" s="2" t="n">
         <v>0.0246</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="18" t="n">
         <f aca="false">B8-C8</f>
         <v>0.0146</v>
       </c>
@@ -22787,7 +23668,7 @@
       <c r="C10" s="2" t="n">
         <v>0.0103</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="18" t="n">
         <f aca="false">B9-C9</f>
         <v>0.0088</v>
       </c>
@@ -22822,7 +23703,7 @@
       <c r="C11" s="2" t="n">
         <v>-0.0044</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="18" t="n">
         <f aca="false">B10-C10</f>
         <v>0.0221</v>
       </c>
@@ -22857,7 +23738,7 @@
       <c r="C12" s="2" t="n">
         <v>-0.0016</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="18" t="n">
         <f aca="false">B11-C11</f>
         <v>-0.006</v>
       </c>
@@ -22892,7 +23773,7 @@
       <c r="C13" s="2" t="n">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="18" t="n">
         <f aca="false">B12-C12</f>
         <v>0.0092</v>
       </c>
@@ -22927,7 +23808,7 @@
       <c r="C14" s="2" t="n">
         <v>0.0162</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="18" t="n">
         <f aca="false">B13-C13</f>
         <v>0.0064</v>
       </c>
@@ -22962,7 +23843,7 @@
       <c r="C15" s="2" t="n">
         <v>-0.003</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="18" t="n">
         <f aca="false">B14-C14</f>
         <v>-0.0016</v>
       </c>
@@ -22997,7 +23878,7 @@
       <c r="C16" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="18" t="n">
         <f aca="false">B15-C15</f>
         <v>0.0096</v>
       </c>
@@ -23032,7 +23913,7 @@
       <c r="C17" s="2" t="n">
         <v>0.0173</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="18" t="n">
         <f aca="false">B16-C16</f>
         <v>-0.0025</v>
       </c>
@@ -23067,7 +23948,7 @@
       <c r="C18" s="2" t="n">
         <v>0.0137</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="18" t="n">
         <f aca="false">B17-C17</f>
         <v>-0.0047</v>
       </c>
@@ -23102,7 +23983,7 @@
       <c r="C19" s="2" t="n">
         <v>-0.0087</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="18" t="n">
         <f aca="false">B18-C18</f>
         <v>-0.0016</v>
       </c>
@@ -23137,7 +24018,7 @@
       <c r="C20" s="2" t="n">
         <v>0.0009</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="18" t="n">
         <f aca="false">B19-C19</f>
         <v>0.0146</v>
       </c>
@@ -23172,7 +24053,7 @@
       <c r="C21" s="2" t="n">
         <v>0.0099</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="18" t="n">
         <f aca="false">B20-C20</f>
         <v>0.0038</v>
       </c>
@@ -23207,7 +24088,7 @@
       <c r="C22" s="2" t="n">
         <v>-0.0044</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="18" t="n">
         <f aca="false">B21-C21</f>
         <v>0.0077</v>
       </c>
@@ -23242,7 +24123,7 @@
       <c r="C23" s="2" t="n">
         <v>0.0051</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="18" t="n">
         <f aca="false">B22-C22</f>
         <v>0.0066</v>
       </c>
@@ -23277,7 +24158,7 @@
       <c r="C24" s="2" t="n">
         <v>0.0202</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="18" t="n">
         <f aca="false">B23-C23</f>
         <v>-0.0129</v>
       </c>
@@ -23312,7 +24193,7 @@
       <c r="C25" s="2" t="n">
         <v>0.0189</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="18" t="n">
         <f aca="false">B24-C24</f>
         <v>-0.016</v>
       </c>
@@ -23347,7 +24228,7 @@
       <c r="C26" s="2" t="n">
         <v>0.0258</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="18" t="n">
         <f aca="false">B25-C25</f>
         <v>0.0005</v>
       </c>
@@ -23382,7 +24263,7 @@
       <c r="C27" s="2" t="n">
         <v>0.0206</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D27" s="18" t="n">
         <f aca="false">B26-C26</f>
         <v>-0.0134</v>
       </c>
@@ -23417,7 +24298,7 @@
       <c r="C28" s="2" t="n">
         <v>-0.0138</v>
       </c>
-      <c r="D28" s="10" t="n">
+      <c r="D28" s="18" t="n">
         <f aca="false">B27-C27</f>
         <v>-0.0219</v>
       </c>
@@ -23452,7 +24333,7 @@
       <c r="C29" s="2" t="n">
         <v>0.0046</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D29" s="18" t="n">
         <f aca="false">B28-C28</f>
         <v>0.0172</v>
       </c>
@@ -23487,7 +24368,7 @@
       <c r="C30" s="2" t="n">
         <v>0.0212</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="18" t="n">
         <f aca="false">B29-C29</f>
         <v>-0.0214</v>
       </c>
@@ -23522,7 +24403,7 @@
       <c r="C31" s="2" t="n">
         <v>0.0097</v>
       </c>
-      <c r="D31" s="10" t="n">
+      <c r="D31" s="18" t="n">
         <f aca="false">B30-C30</f>
         <v>-0.0449</v>
       </c>
@@ -23557,7 +24438,7 @@
       <c r="C32" s="2" t="n">
         <v>0.0029</v>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D32" s="18" t="n">
         <f aca="false">B31-C31</f>
         <v>-0.0117</v>
       </c>
@@ -23592,7 +24473,7 @@
       <c r="C33" s="2" t="n">
         <v>-0.0065</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="18" t="n">
         <f aca="false">B32-C32</f>
         <v>-0.0013</v>
       </c>
@@ -23627,7 +24508,7 @@
       <c r="C34" s="2" t="n">
         <v>0.0036</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="18" t="n">
         <f aca="false">B33-C33</f>
         <v>-0.015</v>
       </c>
@@ -23662,7 +24543,7 @@
       <c r="C35" s="2" t="n">
         <v>0.0011</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D35" s="18" t="n">
         <f aca="false">B34-C34</f>
         <v>-0.0242</v>
       </c>
@@ -23697,7 +24578,7 @@
       <c r="C36" s="2" t="n">
         <v>-0.0035</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="18" t="n">
         <f aca="false">B35-C35</f>
         <v>0.0251</v>
       </c>
@@ -23732,7 +24613,7 @@
       <c r="C37" s="2" t="n">
         <v>0.0214</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="18" t="n">
         <f aca="false">B36-C36</f>
         <v>0.0018</v>
       </c>
@@ -23767,7 +24648,7 @@
       <c r="C38" s="2" t="n">
         <v>0.0131</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="18" t="n">
         <f aca="false">B37-C37</f>
         <v>-0.0021</v>
       </c>
@@ -23802,7 +24683,7 @@
       <c r="C39" s="2" t="n">
         <v>0.0139</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="18" t="n">
         <f aca="false">B38-C38</f>
         <v>0.0111</v>
       </c>
@@ -23837,7 +24718,7 @@
       <c r="C40" s="2" t="n">
         <v>-0.0037</v>
       </c>
-      <c r="D40" s="10" t="n">
+      <c r="D40" s="18" t="n">
         <f aca="false">B39-C39</f>
         <v>0.013</v>
       </c>
@@ -23872,7 +24753,7 @@
       <c r="C41" s="2" t="n">
         <v>0.0089</v>
       </c>
-      <c r="D41" s="10" t="n">
+      <c r="D41" s="18" t="n">
         <f aca="false">B40-C40</f>
         <v>-0.0532</v>
       </c>
@@ -23907,7 +24788,7 @@
       <c r="C42" s="2" t="n">
         <v>0.0141</v>
       </c>
-      <c r="D42" s="10" t="n">
+      <c r="D42" s="18" t="n">
         <f aca="false">B41-C41</f>
         <v>-0.0819</v>
       </c>
@@ -23942,7 +24823,7 @@
       <c r="C43" s="2" t="n">
         <v>0.0149</v>
       </c>
-      <c r="D43" s="10" t="n">
+      <c r="D43" s="18" t="n">
         <f aca="false">B42-C42</f>
         <v>-0.0666</v>
       </c>
@@ -23977,7 +24858,7 @@
       <c r="C44" s="2" t="n">
         <v>0.014</v>
       </c>
-      <c r="D44" s="10" t="n">
+      <c r="D44" s="18" t="n">
         <f aca="false">B43-C43</f>
         <v>0.0163</v>
       </c>
@@ -24012,7 +24893,7 @@
       <c r="C45" s="2" t="n">
         <v>0.0102</v>
       </c>
-      <c r="D45" s="10" t="n">
+      <c r="D45" s="18" t="n">
         <f aca="false">B44-C44</f>
         <v>-0.0084</v>
       </c>
@@ -24047,7 +24928,7 @@
       <c r="C46" s="2" t="n">
         <v>0.0058</v>
       </c>
-      <c r="D46" s="10" t="n">
+      <c r="D46" s="18" t="n">
         <f aca="false">B45-C45</f>
         <v>0.0173</v>
       </c>
@@ -24082,7 +24963,7 @@
       <c r="C47" s="2" t="n">
         <v>0.0054</v>
       </c>
-      <c r="D47" s="10" t="n">
+      <c r="D47" s="18" t="n">
         <f aca="false">B46-C46</f>
         <v>0.1036</v>
       </c>
@@ -24117,7 +24998,7 @@
       <c r="C48" s="2" t="n">
         <v>0.0103</v>
       </c>
-      <c r="D48" s="10" t="n">
+      <c r="D48" s="18" t="n">
         <f aca="false">B47-C47</f>
         <v>0.0535</v>
       </c>
@@ -24152,7 +25033,7 @@
       <c r="C49" s="2" t="n">
         <v>0.0055</v>
       </c>
-      <c r="D49" s="10" t="n">
+      <c r="D49" s="18" t="n">
         <f aca="false">B48-C48</f>
         <v>0.0307</v>
       </c>
@@ -24187,7 +25068,7 @@
       <c r="C50" s="2" t="n">
         <v>0.0008</v>
       </c>
-      <c r="D50" s="10" t="n">
+      <c r="D50" s="18" t="n">
         <f aca="false">B49-C49</f>
         <v>-0.0037</v>
       </c>
@@ -24222,7 +25103,7 @@
       <c r="C51" s="2" t="n">
         <v>0.0109</v>
       </c>
-      <c r="D51" s="10" t="n">
+      <c r="D51" s="18" t="n">
         <f aca="false">B50-C50</f>
         <v>0.0288</v>
       </c>
@@ -24257,7 +25138,7 @@
       <c r="C52" s="2" t="n">
         <v>0.0189</v>
       </c>
-      <c r="D52" s="10" t="n">
+      <c r="D52" s="18" t="n">
         <f aca="false">B51-C51</f>
         <v>0.0211</v>
       </c>
@@ -24292,7 +25173,7 @@
       <c r="C53" s="2" t="n">
         <v>0.0171</v>
       </c>
-      <c r="D53" s="10" t="n">
+      <c r="D53" s="18" t="n">
         <f aca="false">B52-C52</f>
         <v>0.0041</v>
       </c>
@@ -24327,7 +25208,7 @@
       <c r="C54" s="2" t="n">
         <v>0.0114</v>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D54" s="18" t="n">
         <f aca="false">B53-C53</f>
         <v>-0.0032</v>
       </c>
@@ -24362,7 +25243,7 @@
       <c r="C55" s="2" t="n">
         <v>0.0117</v>
       </c>
-      <c r="D55" s="10" t="n">
+      <c r="D55" s="18" t="n">
         <f aca="false">B54-C54</f>
         <v>0.022</v>
       </c>
@@ -24397,7 +25278,7 @@
       <c r="C56" s="2" t="n">
         <v>0.0249</v>
       </c>
-      <c r="D56" s="10" t="n">
+      <c r="D56" s="18" t="n">
         <f aca="false">B55-C55</f>
         <v>-0.0065</v>
       </c>
@@ -24432,7 +25313,7 @@
       <c r="C57" s="2" t="n">
         <v>-0.0099</v>
       </c>
-      <c r="D57" s="10" t="n">
+      <c r="D57" s="18" t="n">
         <f aca="false">B56-C56</f>
         <v>-0.0105</v>
       </c>
@@ -24467,7 +25348,7 @@
       <c r="C58" s="2" t="n">
         <v>0.0031</v>
       </c>
-      <c r="D58" s="10" t="n">
+      <c r="D58" s="18" t="n">
         <f aca="false">B57-C57</f>
         <v>0.0451</v>
       </c>
@@ -24502,7 +25383,7 @@
       <c r="C59" s="2" t="n">
         <v>-0.004</v>
       </c>
-      <c r="D59" s="10" t="n">
+      <c r="D59" s="18" t="n">
         <f aca="false">B58-C58</f>
         <v>0.0216</v>
       </c>
@@ -24537,7 +25418,7 @@
       <c r="C60" s="2" t="n">
         <v>0.0089</v>
       </c>
-      <c r="D60" s="10" t="n">
+      <c r="D60" s="18" t="n">
         <f aca="false">B59-C59</f>
         <v>0.0164</v>
       </c>
@@ -24572,7 +25453,7 @@
       <c r="C61" s="2" t="n">
         <v>0.0149</v>
       </c>
-      <c r="D61" s="10" t="n">
+      <c r="D61" s="18" t="n">
         <f aca="false">B60-C60</f>
         <v>-0.0051</v>
       </c>
@@ -24607,7 +25488,7 @@
       <c r="C62" s="2" t="n">
         <v>0.0145</v>
       </c>
-      <c r="D62" s="10" t="n">
+      <c r="D62" s="18" t="n">
         <f aca="false">B61-C61</f>
         <v>-0.000799999999999999</v>
       </c>
@@ -24642,7 +25523,7 @@
       <c r="C63" s="2" t="n">
         <v>0.0195</v>
       </c>
-      <c r="D63" s="10" t="n">
+      <c r="D63" s="18" t="n">
         <f aca="false">B62-C62</f>
         <v>-0.0051</v>
       </c>
@@ -24677,7 +25558,7 @@
       <c r="C64" s="2" t="n">
         <v>0.0104</v>
       </c>
-      <c r="D64" s="10" t="n">
+      <c r="D64" s="18" t="n">
         <f aca="false">B63-C63</f>
         <v>-0.0044</v>
       </c>
@@ -24712,7 +25593,7 @@
       <c r="C65" s="2" t="n">
         <v>0.0141</v>
       </c>
-      <c r="D65" s="10" t="n">
+      <c r="D65" s="18" t="n">
         <f aca="false">B64-C64</f>
         <v>0.0027</v>
       </c>
@@ -24747,7 +25628,7 @@
       <c r="C66" s="2" t="n">
         <v>-0.0123</v>
       </c>
-      <c r="D66" s="10" t="n">
+      <c r="D66" s="18" t="n">
         <f aca="false">B65-C65</f>
         <v>-0.0039</v>
       </c>
@@ -24782,7 +25663,7 @@
       <c r="C67" s="2" t="n">
         <v>-0.0043</v>
       </c>
-      <c r="D67" s="10" t="n">
+      <c r="D67" s="18" t="n">
         <f aca="false">B66-C66</f>
         <v>-0.0018</v>
       </c>
@@ -24817,7 +25698,7 @@
       <c r="C68" s="2" t="n">
         <v>0.0131</v>
       </c>
-      <c r="D68" s="10" t="n">
+      <c r="D68" s="18" t="n">
         <f aca="false">B67-C67</f>
         <v>0.0169</v>
       </c>
@@ -24852,7 +25733,7 @@
       <c r="C69" s="2" t="n">
         <v>0.0188</v>
       </c>
-      <c r="D69" s="10" t="n">
+      <c r="D69" s="18" t="n">
         <f aca="false">B68-C68</f>
         <v>-0.0017</v>
       </c>
@@ -24887,7 +25768,7 @@
       <c r="C70" s="2" t="n">
         <v>0.0149</v>
       </c>
-      <c r="D70" s="10" t="n">
+      <c r="D70" s="18" t="n">
         <f aca="false">B69-C69</f>
         <v>0.0103</v>
       </c>
@@ -24922,7 +25803,7 @@
       <c r="C71" s="2" t="n">
         <v>0.0036</v>
       </c>
-      <c r="D71" s="10" t="n">
+      <c r="D71" s="18" t="n">
         <f aca="false">B70-C70</f>
         <v>0.0027</v>
       </c>
@@ -24957,7 +25838,7 @@
       <c r="C72" s="2" t="n">
         <v>0.0079</v>
       </c>
-      <c r="D72" s="10" t="n">
+      <c r="D72" s="18" t="n">
         <f aca="false">B71-C71</f>
         <v>0.0093</v>
       </c>
@@ -24992,7 +25873,7 @@
       <c r="C73" s="2" t="n">
         <v>-0.0029</v>
       </c>
-      <c r="D73" s="10" t="n">
+      <c r="D73" s="18" t="n">
         <f aca="false">B72-C72</f>
         <v>0.000799999999999999</v>
       </c>
@@ -25027,7 +25908,7 @@
       <c r="C74" s="2" t="n">
         <v>0.0147</v>
       </c>
-      <c r="D74" s="10" t="n">
+      <c r="D74" s="18" t="n">
         <f aca="false">B73-C73</f>
         <v>0.0148</v>
       </c>
@@ -25062,7 +25943,7 @@
       <c r="C75" s="2" t="n">
         <v>0.0019</v>
       </c>
-      <c r="D75" s="10" t="n">
+      <c r="D75" s="18" t="n">
         <f aca="false">B74-C74</f>
         <v>0.0063</v>
       </c>
@@ -25097,7 +25978,7 @@
       <c r="C76" s="2" t="n">
         <v>0.0151</v>
       </c>
-      <c r="D76" s="10" t="n">
+      <c r="D76" s="18" t="n">
         <f aca="false">B75-C75</f>
         <v>0.0078</v>
       </c>
@@ -25132,7 +26013,7 @@
       <c r="C77" s="2" t="n">
         <v>0.0041</v>
       </c>
-      <c r="D77" s="10" t="n">
+      <c r="D77" s="18" t="n">
         <f aca="false">B76-C76</f>
         <v>-0.0067</v>
       </c>
@@ -25167,7 +26048,7 @@
       <c r="C78" s="2" t="n">
         <v>0.0023</v>
       </c>
-      <c r="D78" s="10" t="n">
+      <c r="D78" s="18" t="n">
         <f aca="false">B77-C77</f>
         <v>-0.0015</v>
       </c>
@@ -25202,7 +26083,7 @@
       <c r="C79" s="2" t="n">
         <v>-0.005</v>
       </c>
-      <c r="D79" s="10" t="n">
+      <c r="D79" s="18" t="n">
         <f aca="false">B78-C78</f>
         <v>0.018</v>
       </c>
@@ -25237,7 +26118,7 @@
       <c r="C80" s="2" t="n">
         <v>0.0041</v>
       </c>
-      <c r="D80" s="10" t="n">
+      <c r="D80" s="18" t="n">
         <f aca="false">B79-C79</f>
         <v>0.0098</v>
       </c>
@@ -25272,7 +26153,7 @@
       <c r="C81" s="2" t="n">
         <v>0.0099</v>
       </c>
-      <c r="D81" s="10" t="n">
+      <c r="D81" s="18" t="n">
         <f aca="false">B80-C80</f>
         <v>0.0083</v>
       </c>
@@ -25307,7 +26188,7 @@
       <c r="C82" s="2" t="n">
         <v>-0.014</v>
       </c>
-      <c r="D82" s="10" t="n">
+      <c r="D82" s="18" t="n">
         <f aca="false">B81-C81</f>
         <v>0.0118</v>
       </c>
@@ -25342,7 +26223,7 @@
       <c r="C83" s="2" t="n">
         <v>-0.0144</v>
       </c>
-      <c r="D83" s="10" t="n">
+      <c r="D83" s="18" t="n">
         <f aca="false">B82-C82</f>
         <v>0.0114</v>
       </c>
@@ -25377,7 +26258,7 @@
       <c r="C84" s="2" t="n">
         <v>-0.0064</v>
       </c>
-      <c r="D84" s="10" t="n">
+      <c r="D84" s="18" t="n">
         <f aca="false">B83-C83</f>
         <v>-0.0234</v>
       </c>
@@ -25412,7 +26293,7 @@
       <c r="C85" s="2" t="n">
         <v>0.0007</v>
       </c>
-      <c r="D85" s="10" t="n">
+      <c r="D85" s="18" t="n">
         <f aca="false">B84-C84</f>
         <v>-0.0005</v>
       </c>
@@ -25447,7 +26328,7 @@
       <c r="C86" s="2" t="n">
         <v>0.0002</v>
       </c>
-      <c r="D86" s="10" t="n">
+      <c r="D86" s="18" t="n">
         <f aca="false">B85-C85</f>
         <v>-0.0002</v>
       </c>
@@ -25482,7 +26363,7 @@
       <c r="C87" s="2" t="n">
         <v>0.013</v>
       </c>
-      <c r="D87" s="10" t="n">
+      <c r="D87" s="18" t="n">
         <f aca="false">B86-C86</f>
         <v>0.0029</v>
       </c>
@@ -25517,7 +26398,7 @@
       <c r="C88" s="2" t="n">
         <v>0.0029</v>
       </c>
-      <c r="D88" s="10" t="n">
+      <c r="D88" s="18" t="n">
         <f aca="false">B87-C87</f>
         <v>-0.0045</v>
       </c>
@@ -25552,7 +26433,7 @@
       <c r="C89" s="2" t="n">
         <v>-0.0082</v>
       </c>
-      <c r="D89" s="10" t="n">
+      <c r="D89" s="18" t="n">
         <f aca="false">B88-C88</f>
         <v>0.0042</v>
       </c>
@@ -25587,7 +26468,7 @@
       <c r="C90" s="2" t="n">
         <v>0.0003</v>
       </c>
-      <c r="D90" s="10" t="n">
+      <c r="D90" s="18" t="n">
         <f aca="false">B89-C89</f>
         <v>0.0083</v>
       </c>
@@ -25622,7 +26503,7 @@
       <c r="C91" s="2" t="n">
         <v>-0.0046</v>
       </c>
-      <c r="D91" s="10" t="n">
+      <c r="D91" s="18" t="n">
         <f aca="false">B90-C90</f>
         <v>0.0021</v>
       </c>
@@ -25657,7 +26538,7 @@
       <c r="C92" s="2" t="n">
         <v>0.0032</v>
       </c>
-      <c r="D92" s="10" t="n">
+      <c r="D92" s="18" t="n">
         <f aca="false">B91-C91</f>
         <v>-0.008</v>
       </c>
@@ -25692,7 +26573,7 @@
       <c r="C93" s="2" t="n">
         <v>0.0162</v>
       </c>
-      <c r="D93" s="10" t="n">
+      <c r="D93" s="18" t="n">
         <f aca="false">B92-C92</f>
         <v>0.0042</v>
       </c>
@@ -25727,7 +26608,7 @@
       <c r="C94" s="2" t="n">
         <v>0.0191</v>
       </c>
-      <c r="D94" s="10" t="n">
+      <c r="D94" s="18" t="n">
         <f aca="false">B93-C93</f>
         <v>-0.0026</v>
       </c>
@@ -25762,7 +26643,7 @@
       <c r="C95" s="2" t="n">
         <v>0.0055</v>
       </c>
-      <c r="D95" s="10" t="n">
+      <c r="D95" s="18" t="n">
         <f aca="false">B94-C94</f>
         <v>0.0152</v>
       </c>
@@ -25797,7 +26678,7 @@
       <c r="C96" s="2" t="n">
         <v>0.0116</v>
       </c>
-      <c r="D96" s="10" t="n">
+      <c r="D96" s="18" t="n">
         <f aca="false">B95-C95</f>
         <v>0.0053</v>
       </c>
@@ -25832,7 +26713,7 @@
       <c r="C97" s="2" t="n">
         <v>0.0282</v>
       </c>
-      <c r="D97" s="10" t="n">
+      <c r="D97" s="18" t="n">
         <f aca="false">B96-C96</f>
         <v>0.0138</v>
       </c>
@@ -25867,7 +26748,7 @@
       <c r="C98" s="2" t="n">
         <v>0.0067</v>
       </c>
-      <c r="D98" s="10" t="n">
+      <c r="D98" s="18" t="n">
         <f aca="false">B97-C97</f>
         <v>-0.000200000000000002</v>
       </c>
@@ -25902,7 +26783,7 @@
       <c r="C99" s="2" t="n">
         <v>0.0004</v>
       </c>
-      <c r="D99" s="10" t="n">
+      <c r="D99" s="18" t="n">
         <f aca="false">B98-C98</f>
         <v>-0.0003</v>
       </c>
@@ -25937,7 +26818,7 @@
       <c r="C100" s="2" t="n">
         <v>0.0081</v>
       </c>
-      <c r="D100" s="10" t="n">
+      <c r="D100" s="18" t="n">
         <f aca="false">B99-C99</f>
         <v>0.0122</v>
       </c>
@@ -25972,7 +26853,7 @@
       <c r="C101" s="2" t="n">
         <v>0.0067</v>
       </c>
-      <c r="D101" s="10" t="n">
+      <c r="D101" s="18" t="n">
         <f aca="false">B100-C100</f>
         <v>-0.005</v>
       </c>
@@ -26007,7 +26888,7 @@
       <c r="C102" s="2" t="n">
         <v>0.0111</v>
       </c>
-      <c r="D102" s="10" t="n">
+      <c r="D102" s="18" t="n">
         <f aca="false">B101-C101</f>
         <v>0.0056</v>
       </c>
@@ -26042,7 +26923,7 @@
       <c r="C103" s="2" t="n">
         <v>0.0122</v>
       </c>
-      <c r="D103" s="10" t="n">
+      <c r="D103" s="18" t="n">
         <f aca="false">B102-C102</f>
         <v>-0.0049</v>
       </c>
@@ -26077,7 +26958,7 @@
       <c r="C104" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="D104" s="10" t="n">
+      <c r="D104" s="18" t="n">
         <f aca="false">B103-C103</f>
         <v>-0.0034</v>
       </c>
@@ -26112,7 +26993,7 @@
       <c r="C105" s="2" t="n">
         <v>0.0086</v>
       </c>
-      <c r="D105" s="10" t="n">
+      <c r="D105" s="18" t="n">
         <f aca="false">B104-C104</f>
         <v>0.0057</v>
       </c>
@@ -26147,7 +27028,7 @@
       <c r="C106" s="2" t="n">
         <v>-0.0107</v>
       </c>
-      <c r="D106" s="10" t="n">
+      <c r="D106" s="18" t="n">
         <f aca="false">B105-C105</f>
         <v>0.009</v>
       </c>
@@ -26182,7 +27063,7 @@
       <c r="C107" s="2" t="n">
         <v>-0.0049</v>
       </c>
-      <c r="D107" s="10" t="n">
+      <c r="D107" s="18" t="n">
         <f aca="false">B106-C106</f>
         <v>0.0115</v>
       </c>
@@ -26217,7 +27098,7 @@
       <c r="C108" s="2" t="n">
         <v>-0.0029</v>
       </c>
-      <c r="D108" s="10" t="n">
+      <c r="D108" s="18" t="n">
         <f aca="false">B107-C107</f>
         <v>0.0042</v>
       </c>
@@ -26252,7 +27133,7 @@
       <c r="C109" s="2" t="n">
         <v>-0.0005</v>
       </c>
-      <c r="D109" s="10" t="n">
+      <c r="D109" s="18" t="n">
         <f aca="false">B108-C108</f>
         <v>0.0051</v>
       </c>
@@ -26287,7 +27168,7 @@
       <c r="C110" s="2" t="n">
         <v>0.0099</v>
       </c>
-      <c r="D110" s="10" t="n">
+      <c r="D110" s="18" t="n">
         <f aca="false">B109-C109</f>
         <v>0.0065</v>
       </c>
@@ -26322,7 +27203,7 @@
       <c r="C111" s="2" t="n">
         <v>0.003</v>
       </c>
-      <c r="D111" s="10" t="n">
+      <c r="D111" s="18" t="n">
         <f aca="false">B110-C110</f>
         <v>-0.0016</v>
       </c>
@@ -26357,7 +27238,7 @@
       <c r="C112" s="2" t="n">
         <v>0.0013</v>
       </c>
-      <c r="D112" s="10" t="n">
+      <c r="D112" s="18" t="n">
         <f aca="false">B111-C111</f>
         <v>0.0017</v>
       </c>
@@ -26392,7 +27273,7 @@
       <c r="C113" s="2" t="n">
         <v>0.0128</v>
       </c>
-      <c r="D113" s="10" t="n">
+      <c r="D113" s="18" t="n">
         <f aca="false">B112-C112</f>
         <v>0.0095</v>
       </c>
@@ -26427,7 +27308,7 @@
       <c r="C114" s="2" t="n">
         <v>0.0163</v>
       </c>
-      <c r="D114" s="10" t="n">
+      <c r="D114" s="18" t="n">
         <f aca="false">B113-C113</f>
         <v>0.0113</v>
       </c>
@@ -26462,7 +27343,7 @@
       <c r="C115" s="2" t="n">
         <v>0.012</v>
       </c>
-      <c r="D115" s="10" t="n">
+      <c r="D115" s="18" t="n">
         <f aca="false">B114-C114</f>
         <v>-0.0086</v>
       </c>
@@ -26497,7 +27378,7 @@
       <c r="C116" s="2" t="n">
         <v>-0.0054</v>
       </c>
-      <c r="D116" s="10" t="n">
+      <c r="D116" s="18" t="n">
         <f aca="false">B115-C115</f>
         <v>0.0077</v>
       </c>
@@ -26532,7 +27413,7 @@
       <c r="C117" s="2" t="n">
         <v>0.0037</v>
       </c>
-      <c r="D117" s="10" t="n">
+      <c r="D117" s="18" t="n">
         <f aca="false">B116-C116</f>
         <v>0.0126</v>
       </c>
@@ -26567,7 +27448,7 @@
       <c r="C118" s="2" t="n">
         <v>0.0015</v>
       </c>
-      <c r="D118" s="10" t="n">
+      <c r="D118" s="18" t="n">
         <f aca="false">B117-C117</f>
         <v>0.0061</v>
       </c>
@@ -26602,7 +27483,7 @@
       <c r="C119" s="2" t="n">
         <v>-0.0059</v>
       </c>
-      <c r="D119" s="10" t="n">
+      <c r="D119" s="18" t="n">
         <f aca="false">B118-C118</f>
         <v>0.015</v>
       </c>
@@ -26637,7 +27518,7 @@
       <c r="C120" s="2" t="n">
         <v>0.0112</v>
       </c>
-      <c r="D120" s="10" t="n">
+      <c r="D120" s="18" t="n">
         <f aca="false">B119-C119</f>
         <v>-0.009</v>
       </c>
@@ -26672,7 +27553,7 @@
       <c r="C121" s="2" t="n">
         <v>0.0078</v>
       </c>
-      <c r="D121" s="10" t="n">
+      <c r="D121" s="18" t="n">
         <f aca="false">B120-C120</f>
         <v>-0.000700000000000001</v>
       </c>
@@ -26707,7 +27588,7 @@
       <c r="C122" s="2" t="n">
         <v>0.0086</v>
       </c>
-      <c r="D122" s="10" t="n">
+      <c r="D122" s="18" t="n">
         <f aca="false">B121-C121</f>
         <v>0.0136</v>
       </c>
@@ -26742,7 +27623,7 @@
       <c r="C123" s="2" t="n">
         <v>0.0187</v>
       </c>
-      <c r="D123" s="10" t="n">
+      <c r="D123" s="18" t="n">
         <f aca="false">B122-C122</f>
         <v>0.0053</v>
       </c>
@@ -26777,7 +27658,7 @@
       <c r="C124" s="2" t="n">
         <v>-0.004</v>
       </c>
-      <c r="D124" s="10" t="n">
+      <c r="D124" s="18" t="n">
         <f aca="false">B123-C123</f>
         <v>0.0088</v>
       </c>
@@ -26812,7 +27693,7 @@
       <c r="C125" s="2" t="n">
         <v>0.0109</v>
       </c>
-      <c r="D125" s="10" t="n">
+      <c r="D125" s="18" t="n">
         <f aca="false">B124-C124</f>
         <v>0.0017</v>
       </c>
@@ -26847,7 +27728,7 @@
       <c r="C126" s="2" t="n">
         <v>0.0118</v>
       </c>
-      <c r="D126" s="10" t="n">
+      <c r="D126" s="18" t="n">
         <f aca="false">B125-C125</f>
         <v>0.0089</v>
       </c>
@@ -26882,7 +27763,7 @@
       <c r="C127" s="2" t="n">
         <v>0.0024</v>
       </c>
-      <c r="D127" s="10" t="n">
+      <c r="D127" s="18" t="n">
         <f aca="false">B126-C126</f>
         <v>-0.0109</v>
       </c>
@@ -26917,7 +27798,7 @@
       <c r="C128" s="2" t="n">
         <v>0.0084</v>
       </c>
-      <c r="D128" s="10" t="n">
+      <c r="D128" s="18" t="n">
         <f aca="false">B127-C127</f>
         <v>0.0072</v>
       </c>
@@ -26952,7 +27833,7 @@
       <c r="C129" s="2" t="n">
         <v>0.0135</v>
       </c>
-      <c r="D129" s="10" t="n">
+      <c r="D129" s="18" t="n">
         <f aca="false">B128-C128</f>
         <v>0.000400000000000001</v>
       </c>
@@ -26987,7 +27868,7 @@
       <c r="C130" s="2" t="n">
         <v>-0.0014</v>
       </c>
-      <c r="D130" s="10" t="n">
+      <c r="D130" s="18" t="n">
         <f aca="false">B129-C129</f>
         <v>0.0045</v>
       </c>
@@ -27022,7 +27903,7 @@
       <c r="C131" s="2" t="n">
         <v>0.003</v>
       </c>
-      <c r="D131" s="10" t="n">
+      <c r="D131" s="18" t="n">
         <f aca="false">B130-C130</f>
         <v>0.0073</v>
       </c>
@@ -27057,7 +27938,7 @@
       <c r="C132" s="2" t="n">
         <v>0.0048</v>
       </c>
-      <c r="D132" s="10" t="n">
+      <c r="D132" s="18" t="n">
         <f aca="false">B131-C131</f>
         <v>0.0064</v>
       </c>
@@ -27092,7 +27973,7 @@
       <c r="C133" s="2" t="n">
         <v>0.0069</v>
       </c>
-      <c r="D133" s="10" t="n">
+      <c r="D133" s="18" t="n">
         <f aca="false">B132-C132</f>
         <v>-0.0009</v>
       </c>
@@ -27127,7 +28008,7 @@
       <c r="C134" s="2" t="n">
         <v>0.0067</v>
       </c>
-      <c r="D134" s="10" t="n">
+      <c r="D134" s="18" t="n">
         <f aca="false">B133-C133</f>
         <v>-0.0034</v>
       </c>
@@ -27162,7 +28043,7 @@
       <c r="C135" s="2" t="n">
         <v>0.0039</v>
       </c>
-      <c r="D135" s="10" t="n">
+      <c r="D135" s="18" t="n">
         <f aca="false">B134-C134</f>
         <v>-0.0031</v>
       </c>
@@ -27197,7 +28078,7 @@
       <c r="C136" s="2" t="n">
         <v>0.0198</v>
       </c>
-      <c r="D136" s="10" t="n">
+      <c r="D136" s="18" t="n">
         <f aca="false">B135-C135</f>
         <v>0.0018</v>
       </c>
@@ -27232,7 +28113,7 @@
       <c r="C137" s="2" t="n">
         <v>0.0241</v>
       </c>
-      <c r="D137" s="10" t="n">
+      <c r="D137" s="18" t="n">
         <f aca="false">B136-C136</f>
         <v>-0.075</v>
       </c>
@@ -27267,7 +28148,7 @@
       <c r="C138" s="2" t="n">
         <v>0.002</v>
       </c>
-      <c r="D138" s="10" t="n">
+      <c r="D138" s="18" t="n">
         <f aca="false">B137-C137</f>
         <v>-0.0196</v>
       </c>
@@ -27302,7 +28183,7 @@
       <c r="C139" s="2" t="n">
         <v>-0.0037</v>
       </c>
-      <c r="D139" s="10" t="n">
+      <c r="D139" s="18" t="n">
         <f aca="false">B138-C138</f>
         <v>-0.0225</v>
       </c>
@@ -27337,7 +28218,7 @@
       <c r="C140" s="2" t="n">
         <v>0.0038</v>
       </c>
-      <c r="D140" s="10" t="n">
+      <c r="D140" s="18" t="n">
         <f aca="false">B139-C139</f>
         <v>0.0452</v>
       </c>
@@ -27372,7 +28253,7 @@
       <c r="C141" s="2" t="n">
         <v>0.0044</v>
       </c>
-      <c r="D141" s="10" t="n">
+      <c r="D141" s="18" t="n">
         <f aca="false">B140-C140</f>
         <v>-0.0027</v>
       </c>
@@ -27407,7 +28288,7 @@
       <c r="C142" s="2" t="n">
         <v>-0.0146</v>
       </c>
-      <c r="D142" s="10" t="n">
+      <c r="D142" s="18" t="n">
         <f aca="false">B141-C141</f>
         <v>0.0105</v>
       </c>
@@ -27442,7 +28323,7 @@
       <c r="C143" s="2" t="n">
         <v>0.0066</v>
       </c>
-      <c r="D143" s="10" t="n">
+      <c r="D143" s="18" t="n">
         <f aca="false">B142-C142</f>
         <v>0.0087</v>
       </c>
@@ -27477,7 +28358,7 @@
       <c r="C144" s="2" t="n">
         <v>0.0028</v>
       </c>
-      <c r="D144" s="10" t="n">
+      <c r="D144" s="18" t="n">
         <f aca="false">B143-C143</f>
         <v>0.0029</v>
       </c>
@@ -27512,7 +28393,7 @@
       <c r="C145" s="2" t="n">
         <v>-0.0064</v>
       </c>
-      <c r="D145" s="10" t="n">
+      <c r="D145" s="18" t="n">
         <f aca="false">B144-C144</f>
         <v>0.0166</v>
       </c>
@@ -27547,7 +28428,7 @@
       <c r="C146" s="2" t="n">
         <v>0.0018</v>
       </c>
-      <c r="D146" s="10" t="n">
+      <c r="D146" s="18" t="n">
         <f aca="false">B145-C145</f>
         <v>-0.0071</v>
       </c>
@@ -27582,7 +28463,7 @@
       <c r="C147" s="2" t="n">
         <v>0.0009</v>
       </c>
-      <c r="D147" s="10" t="n">
+      <c r="D147" s="18" t="n">
         <f aca="false">B146-C146</f>
         <v>-0.0039</v>
       </c>
@@ -27617,7 +28498,7 @@
       <c r="C148" s="2" t="n">
         <v>0.002</v>
       </c>
-      <c r="D148" s="10" t="n">
+      <c r="D148" s="18" t="n">
         <f aca="false">B147-C147</f>
         <v>0.0031</v>
       </c>
@@ -27652,7 +28533,7 @@
       <c r="C149" s="2" t="n">
         <v>0.0078</v>
       </c>
-      <c r="D149" s="10" t="n">
+      <c r="D149" s="18" t="n">
         <f aca="false">B148-C148</f>
         <v>-0.013</v>
       </c>
@@ -27687,7 +28568,7 @@
       <c r="C150" s="2" t="n">
         <v>0.0013</v>
       </c>
-      <c r="D150" s="10" t="n">
+      <c r="D150" s="18" t="n">
         <f aca="false">B149-C149</f>
         <v>-0.015</v>
       </c>
@@ -27722,7 +28603,7 @@
       <c r="C151" s="2" t="n">
         <v>0.0004</v>
       </c>
-      <c r="D151" s="10" t="n">
+      <c r="D151" s="18" t="n">
         <f aca="false">B150-C150</f>
         <v>-0.0079</v>
       </c>
@@ -27757,7 +28638,7 @@
       <c r="C152" s="2" t="n">
         <v>-0.0028</v>
       </c>
-      <c r="D152" s="10" t="n">
+      <c r="D152" s="18" t="n">
         <f aca="false">B151-C151</f>
         <v>0.0114</v>
       </c>
@@ -27792,7 +28673,7 @@
       <c r="C153" s="2" t="n">
         <v>-0.0028</v>
       </c>
-      <c r="D153" s="10" t="n">
+      <c r="D153" s="18" t="n">
         <f aca="false">B152-C152</f>
         <v>0.014</v>
       </c>
@@ -27827,7 +28708,7 @@
       <c r="C154" s="2" t="n">
         <v>0.0078</v>
       </c>
-      <c r="D154" s="10" t="n">
+      <c r="D154" s="18" t="n">
         <f aca="false">B153-C153</f>
         <v>-0.0015</v>
       </c>
@@ -27862,7 +28743,7 @@
       <c r="C155" s="2" t="n">
         <v>0.0127</v>
       </c>
-      <c r="D155" s="10" t="n">
+      <c r="D155" s="18" t="n">
         <f aca="false">B154-C154</f>
         <v>-0.0059</v>
       </c>
@@ -27897,7 +28778,7 @@
       <c r="C156" s="2" t="n">
         <v>-0.0007</v>
       </c>
-      <c r="D156" s="10" t="n">
+      <c r="D156" s="18" t="n">
         <f aca="false">B155-C155</f>
         <v>-0.0337</v>
       </c>
@@ -27932,7 +28813,7 @@
       <c r="C157" s="2" t="n">
         <v>0.0042</v>
       </c>
-      <c r="D157" s="10" t="n">
+      <c r="D157" s="18" t="n">
         <f aca="false">B156-C156</f>
         <v>0.0023</v>
       </c>
@@ -27967,7 +28848,7 @@
       <c r="C158" s="2" t="n">
         <v>0.0144</v>
       </c>
-      <c r="D158" s="10" t="n">
+      <c r="D158" s="18" t="n">
         <f aca="false">B157-C157</f>
         <v>-0.0145</v>
       </c>
@@ -28002,7 +28883,7 @@
       <c r="C159" s="2" t="n">
         <v>0.0067</v>
       </c>
-      <c r="D159" s="10" t="n">
+      <c r="D159" s="18" t="n">
         <f aca="false">B158-C158</f>
         <v>0.006</v>
       </c>
@@ -28037,7 +28918,7 @@
       <c r="C160" s="2" t="n">
         <v>0.0104</v>
       </c>
-      <c r="D160" s="10" t="n">
+      <c r="D160" s="18" t="n">
         <f aca="false">B159-C159</f>
         <v>0.0009</v>
       </c>
@@ -28072,7 +28953,7 @@
       <c r="C161" s="2" t="n">
         <v>0.0077</v>
       </c>
-      <c r="D161" s="10" t="n">
+      <c r="D161" s="18" t="n">
         <f aca="false">B160-C160</f>
         <v>-0.0036</v>
       </c>
@@ -28107,7 +28988,7 @@
       <c r="C162" s="2" t="n">
         <v>0.0066</v>
       </c>
-      <c r="D162" s="10" t="n">
+      <c r="D162" s="18" t="n">
         <f aca="false">B161-C161</f>
         <v>-0.0164</v>
       </c>
@@ -28142,7 +29023,7 @@
       <c r="C163" s="2" t="n">
         <v>0.0145</v>
       </c>
-      <c r="D163" s="10" t="n">
+      <c r="D163" s="18" t="n">
         <f aca="false">B162-C162</f>
         <v>-0.0386</v>
       </c>
@@ -28177,7 +29058,7 @@
       <c r="C164" s="2" t="n">
         <v>0.0166</v>
       </c>
-      <c r="D164" s="10" t="n">
+      <c r="D164" s="18" t="n">
         <f aca="false">B163-C163</f>
         <v>-0.0541</v>
       </c>
@@ -28212,7 +29093,7 @@
       <c r="C165" s="2" t="n">
         <v>0.0118</v>
       </c>
-      <c r="D165" s="10" t="n">
+      <c r="D165" s="18" t="n">
         <f aca="false">B164-C164</f>
         <v>0.0027</v>
       </c>
@@ -28247,7 +29128,7 @@
       <c r="C166" s="2" t="n">
         <v>0.0092</v>
       </c>
-      <c r="D166" s="10" t="n">
+      <c r="D166" s="18" t="n">
         <f aca="false">B165-C165</f>
         <v>0.0631</v>
       </c>
@@ -28282,7 +29163,7 @@
       <c r="C167" s="2" t="n">
         <v>0.0079</v>
       </c>
-      <c r="D167" s="10" t="n">
+      <c r="D167" s="18" t="n">
         <f aca="false">B166-C166</f>
         <v>0.0041</v>
       </c>
@@ -28317,7 +29198,7 @@
       <c r="C168" s="2" t="n">
         <v>-0.004</v>
       </c>
-      <c r="D168" s="10" t="n">
+      <c r="D168" s="18" t="n">
         <f aca="false">B167-C167</f>
         <v>-0.0314</v>
       </c>
@@ -28352,7 +29233,7 @@
       <c r="C169" s="2" t="n">
         <v>0.0041</v>
       </c>
-      <c r="D169" s="10" t="n">
+      <c r="D169" s="18" t="n">
         <f aca="false">B168-C168</f>
         <v>-0.0085</v>
       </c>
@@ -28387,7 +29268,7 @@
       <c r="C170" s="2" t="n">
         <v>0.0036</v>
       </c>
-      <c r="D170" s="10" t="n">
+      <c r="D170" s="18" t="n">
         <f aca="false">B169-C169</f>
         <v>0.0139</v>
       </c>
@@ -28422,7 +29303,7 @@
       <c r="C171" s="2" t="n">
         <v>0.0181</v>
       </c>
-      <c r="D171" s="10" t="n">
+      <c r="D171" s="18" t="n">
         <f aca="false">B170-C170</f>
         <v>-0.0316</v>
       </c>
@@ -28457,7 +29338,7 @@
       <c r="C172" s="2" t="n">
         <v>0.0086</v>
       </c>
-      <c r="D172" s="10" t="n">
+      <c r="D172" s="18" t="n">
         <f aca="false">B171-C171</f>
         <v>-0.0034</v>
       </c>
@@ -28492,7 +29373,7 @@
       <c r="C173" s="2" t="n">
         <v>0.0207</v>
       </c>
-      <c r="D173" s="10" t="n">
+      <c r="D173" s="18" t="n">
         <f aca="false">B172-C172</f>
         <v>0.0032</v>
       </c>
@@ -28527,7 +29408,7 @@
       <c r="C174" s="2" t="n">
         <v>0.0152</v>
       </c>
-      <c r="D174" s="10" t="n">
+      <c r="D174" s="18" t="n">
         <f aca="false">B173-C173</f>
         <v>-0.0879</v>
       </c>
@@ -28562,7 +29443,7 @@
       <c r="C175" s="2" t="n">
         <v>-0.0114</v>
       </c>
-      <c r="D175" s="10" t="n">
+      <c r="D175" s="18" t="n">
         <f aca="false">B174-C174</f>
         <v>0.0095</v>
       </c>
@@ -28597,7 +29478,7 @@
       <c r="C176" s="2" t="n">
         <v>-0.0048</v>
       </c>
-      <c r="D176" s="10" t="n">
+      <c r="D176" s="18" t="n">
         <f aca="false">B175-C175</f>
         <v>0.0479</v>
       </c>
@@ -28632,7 +29513,7 @@
       <c r="C177" s="2" t="n">
         <v>0.0034</v>
       </c>
-      <c r="D177" s="10" t="n">
+      <c r="D177" s="18" t="n">
         <f aca="false">B176-C176</f>
         <v>0.000699999999999999</v>
       </c>
@@ -28667,7 +29548,7 @@
       <c r="C178" s="2" t="n">
         <v>0.0076</v>
       </c>
-      <c r="D178" s="10" t="n">
+      <c r="D178" s="18" t="n">
         <f aca="false">B177-C177</f>
         <v>0.0036</v>
       </c>
@@ -28702,7 +29583,7 @@
       <c r="C179" s="2" t="n">
         <v>-0.0153</v>
       </c>
-      <c r="D179" s="10" t="n">
+      <c r="D179" s="18" t="n">
         <f aca="false">B178-C178</f>
         <v>-0.0216</v>
       </c>
@@ -28737,7 +29618,7 @@
       <c r="C180" s="2" t="n">
         <v>0.0178</v>
       </c>
-      <c r="D180" s="10" t="n">
+      <c r="D180" s="18" t="n">
         <f aca="false">B179-C179</f>
         <v>0.0394</v>
       </c>
@@ -28772,7 +29653,7 @@
       <c r="C181" s="2" t="n">
         <v>0.0069</v>
       </c>
-      <c r="D181" s="10" t="n">
+      <c r="D181" s="18" t="n">
         <f aca="false">B180-C180</f>
         <v>-0.0022</v>
       </c>
@@ -28807,7 +29688,7 @@
       <c r="C182" s="2" t="n">
         <v>0.0122</v>
       </c>
-      <c r="D182" s="10" t="n">
+      <c r="D182" s="18" t="n">
         <f aca="false">B181-C181</f>
         <v>-0.0121</v>
       </c>
@@ -28842,7 +29723,7 @@
       <c r="C183" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="D183" s="10" t="n">
+      <c r="D183" s="18" t="n">
         <f aca="false">B182-C182</f>
         <v>-0.0859</v>
       </c>
@@ -28877,7 +29758,7 @@
       <c r="C184" s="2" t="n">
         <v>0.0105</v>
       </c>
-      <c r="D184" s="10" t="n">
+      <c r="D184" s="18" t="n">
         <f aca="false">B183-C183</f>
         <v>-0.0637</v>
       </c>
@@ -28912,7 +29793,7 @@
       <c r="C185" s="2" t="n">
         <v>0.0192</v>
       </c>
-      <c r="D185" s="10" t="n">
+      <c r="D185" s="18" t="n">
         <f aca="false">B184-C184</f>
         <v>0.018</v>
       </c>
@@ -28947,7 +29828,7 @@
       <c r="C186" s="2" t="n">
         <v>-0.0018</v>
       </c>
-      <c r="D186" s="10" t="n">
+      <c r="D186" s="18" t="n">
         <f aca="false">B185-C185</f>
         <v>-0.0323</v>
       </c>
@@ -28982,7 +29863,7 @@
       <c r="C187" s="2" t="n">
         <v>-0.0093</v>
       </c>
-      <c r="D187" s="10" t="n">
+      <c r="D187" s="18" t="n">
         <f aca="false">B186-C186</f>
         <v>-0.0069</v>
       </c>
@@ -29017,7 +29898,7 @@
       <c r="C188" s="2" t="n">
         <v>0.0186</v>
       </c>
-      <c r="D188" s="10" t="n">
+      <c r="D188" s="18" t="n">
         <f aca="false">B187-C187</f>
         <v>0.0712</v>
       </c>
@@ -29052,7 +29933,7 @@
       <c r="C189" s="2" t="n">
         <v>-0.0029</v>
       </c>
-      <c r="D189" s="10" t="n">
+      <c r="D189" s="18" t="n">
         <f aca="false">B188-C188</f>
         <v>-0.0046</v>
       </c>
@@ -29087,7 +29968,7 @@
       <c r="C190" s="2" t="n">
         <v>0.0108</v>
       </c>
-      <c r="D190" s="10" t="n">
+      <c r="D190" s="18" t="n">
         <f aca="false">B189-C189</f>
         <v>0.0362</v>
       </c>
@@ -29122,7 +30003,7 @@
       <c r="C191" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D191" s="10" t="n">
+      <c r="D191" s="18" t="n">
         <f aca="false">B190-C190</f>
         <v>0.0015</v>
       </c>
@@ -29157,7 +30038,7 @@
       <c r="C192" s="2" t="n">
         <v>0.002</v>
       </c>
-      <c r="D192" s="10" t="n">
+      <c r="D192" s="18" t="n">
         <f aca="false">B191-C191</f>
         <v>0.0288</v>
       </c>
@@ -29192,7 +30073,7 @@
       <c r="C193" s="2" t="n">
         <v>0.0155</v>
       </c>
-      <c r="D193" s="10" t="n">
+      <c r="D193" s="18" t="n">
         <f aca="false">B192-C192</f>
         <v>0.0573</v>
       </c>
@@ -29227,7 +30108,7 @@
       <c r="C194" s="2" t="n">
         <v>-0.0016</v>
       </c>
-      <c r="D194" s="10" t="n">
+      <c r="D194" s="18" t="n">
         <f aca="false">B193-C193</f>
         <v>-0.0052</v>
       </c>
@@ -29262,7 +30143,7 @@
       <c r="C195" s="2" t="n">
         <v>-0.0219</v>
       </c>
-      <c r="D195" s="10" t="n">
+      <c r="D195" s="18" t="n">
         <f aca="false">B194-C194</f>
         <v>0.0304</v>
       </c>
@@ -29297,7 +30178,7 @@
       <c r="C196" s="2" t="n">
         <v>0.0014</v>
       </c>
-      <c r="D196" s="10" t="n">
+      <c r="D196" s="18" t="n">
         <f aca="false">B195-C195</f>
         <v>0.0109</v>
       </c>
@@ -29332,7 +30213,7 @@
       <c r="C197" s="2" t="n">
         <v>0.0207</v>
       </c>
-      <c r="D197" s="10" t="n">
+      <c r="D197" s="18" t="n">
         <f aca="false">B196-C196</f>
         <v>0.0101</v>
       </c>
@@ -29367,7 +30248,7 @@
       <c r="C198" s="2" t="n">
         <v>-0.0098</v>
       </c>
-      <c r="D198" s="10" t="n">
+      <c r="D198" s="18" t="n">
         <f aca="false">B197-C197</f>
         <v>0.0066</v>
       </c>
@@ -29402,7 +30283,7 @@
       <c r="C199" s="2" t="n">
         <v>-0.0003</v>
       </c>
-      <c r="D199" s="10" t="n">
+      <c r="D199" s="18" t="n">
         <f aca="false">B198-C198</f>
         <v>0.03</v>
       </c>
@@ -29437,7 +30318,7 @@
       <c r="C200" s="2" t="n">
         <v>0.0076</v>
       </c>
-      <c r="D200" s="10" t="n">
+      <c r="D200" s="18" t="n">
         <f aca="false">B199-C199</f>
         <v>0.0155</v>
       </c>
@@ -29472,7 +30353,7 @@
       <c r="C201" s="2" t="n">
         <v>0.0049</v>
       </c>
-      <c r="D201" s="10" t="n">
+      <c r="D201" s="18" t="n">
         <f aca="false">B200-C200</f>
         <v>0.015</v>
       </c>
@@ -29507,7 +30388,7 @@
       <c r="C202" s="2" t="n">
         <v>0.0093</v>
       </c>
-      <c r="D202" s="10" t="n">
+      <c r="D202" s="18" t="n">
         <f aca="false">B201-C201</f>
         <v>0.0142</v>
       </c>
@@ -29542,7 +30423,7 @@
       <c r="C203" s="2" t="n">
         <v>0.007</v>
       </c>
-      <c r="D203" s="10" t="n">
+      <c r="D203" s="18" t="n">
         <f aca="false">B202-C202</f>
         <v>-0.0118</v>
       </c>
@@ -29577,7 +30458,7 @@
       <c r="C204" s="2" t="n">
         <v>-0.0226</v>
       </c>
-      <c r="D204" s="10" t="n">
+      <c r="D204" s="18" t="n">
         <f aca="false">B203-C203</f>
         <v>-0.000200000000000001</v>
       </c>
@@ -29612,7 +30493,7 @@
       <c r="C205" s="2" t="n">
         <v>-0.0029</v>
       </c>
-      <c r="D205" s="10" t="n">
+      <c r="D205" s="18" t="n">
         <f aca="false">B204-C204</f>
         <v>0.0158</v>
       </c>
@@ -29647,7 +30528,7 @@
       <c r="C206" s="2" t="n">
         <v>0.0021</v>
       </c>
-      <c r="D206" s="10" t="n">
+      <c r="D206" s="18" t="n">
         <f aca="false">B205-C205</f>
         <v>-0.014</v>
       </c>
@@ -29682,7 +30563,7 @@
       <c r="C207" s="2" t="n">
         <v>0.0068</v>
       </c>
-      <c r="D207" s="10" t="n">
+      <c r="D207" s="18" t="n">
         <f aca="false">B206-C206</f>
         <v>0.0122</v>
       </c>
@@ -29717,7 +30598,7 @@
       <c r="C208" s="2" t="n">
         <v>0.0146</v>
       </c>
-      <c r="D208" s="10" t="n">
+      <c r="D208" s="18" t="n">
         <f aca="false">B207-C207</f>
         <v>0.0068</v>
       </c>
@@ -29752,7 +30633,7 @@
       <c r="C209" s="2" t="n">
         <v>0.0004</v>
       </c>
-      <c r="D209" s="10" t="n">
+      <c r="D209" s="18" t="n">
         <f aca="false">B208-C208</f>
         <v>0.005</v>
       </c>
@@ -29787,7 +30668,7 @@
       <c r="C210" s="2" t="n">
         <v>0.0055</v>
       </c>
-      <c r="D210" s="10" t="n">
+      <c r="D210" s="18" t="n">
         <f aca="false">B209-C209</f>
         <v>0.0141</v>
       </c>
@@ -29822,7 +30703,7 @@
       <c r="C211" s="2" t="n">
         <v>-0.0103</v>
       </c>
-      <c r="D211" s="10" t="n">
+      <c r="D211" s="18" t="n">
         <f aca="false">B210-C210</f>
         <v>0.0126</v>
       </c>
@@ -29857,7 +30738,7 @@
       <c r="C212" s="2" t="n">
         <v>0.0056</v>
       </c>
-      <c r="D212" s="10" t="n">
+      <c r="D212" s="18" t="n">
         <f aca="false">B211-C211</f>
         <v>0.0224</v>
       </c>
@@ -29892,7 +30773,7 @@
       <c r="C213" s="2" t="n">
         <v>0.0011</v>
       </c>
-      <c r="D213" s="10" t="n">
+      <c r="D213" s="18" t="n">
         <f aca="false">B212-C212</f>
         <v>0.0093</v>
       </c>
@@ -29927,7 +30808,7 @@
       <c r="C214" s="2" t="n">
         <v>-0.0065</v>
       </c>
-      <c r="D214" s="10" t="n">
+      <c r="D214" s="18" t="n">
         <f aca="false">B213-C213</f>
         <v>-0.0024</v>
       </c>
@@ -29962,7 +30843,7 @@
       <c r="C215" s="2" t="n">
         <v>-0.0021</v>
       </c>
-      <c r="D215" s="10" t="n">
+      <c r="D215" s="18" t="n">
         <f aca="false">B214-C214</f>
         <v>0.0212</v>
       </c>
@@ -29997,7 +30878,7 @@
       <c r="C216" s="2" t="n">
         <v>0.0122</v>
       </c>
-      <c r="D216" s="10" t="n">
+      <c r="D216" s="18" t="n">
         <f aca="false">B215-C215</f>
         <v>-0.027</v>
       </c>
@@ -30032,7 +30913,7 @@
       <c r="C217" s="2" t="n">
         <v>0.0077</v>
       </c>
-      <c r="D217" s="10" t="n">
+      <c r="D217" s="18" t="n">
         <f aca="false">B216-C216</f>
         <v>-0.0219</v>
       </c>
@@ -30067,7 +30948,7 @@
       <c r="C218" s="2" t="n">
         <v>0.0032</v>
       </c>
-      <c r="D218" s="10" t="n">
+      <c r="D218" s="18" t="n">
         <f aca="false">B217-C217</f>
         <v>0.0101</v>
       </c>
@@ -30102,7 +30983,7 @@
       <c r="C219" s="2" t="n">
         <v>-0.0093</v>
       </c>
-      <c r="D219" s="10" t="n">
+      <c r="D219" s="18" t="n">
         <f aca="false">B218-C218</f>
         <v>0.0164</v>
       </c>
@@ -30137,7 +31018,7 @@
       <c r="C220" s="2" t="n">
         <v>0.0115</v>
       </c>
-      <c r="D220" s="10" t="n">
+      <c r="D220" s="18" t="n">
         <f aca="false">B219-C219</f>
         <v>0.0268</v>
       </c>
@@ -30172,7 +31053,7 @@
       <c r="C221" s="2" t="n">
         <v>-0.0082</v>
       </c>
-      <c r="D221" s="10" t="n">
+      <c r="D221" s="18" t="n">
         <f aca="false">B220-C220</f>
         <v>-0.0096</v>
       </c>
@@ -30207,7 +31088,7 @@
       <c r="C222" s="2" t="n">
         <v>-0.0044</v>
       </c>
-      <c r="D222" s="10" t="n">
+      <c r="D222" s="18" t="n">
         <f aca="false">B221-C221</f>
         <v>-0.0018</v>
       </c>
@@ -30242,7 +31123,7 @@
       <c r="C223" s="2" t="n">
         <v>0.0044</v>
       </c>
-      <c r="D223" s="10" t="n">
+      <c r="D223" s="18" t="n">
         <f aca="false">B222-C222</f>
         <v>-0.0026</v>
       </c>
@@ -30277,7 +31158,7 @@
       <c r="C224" s="2" t="n">
         <v>0.0063</v>
       </c>
-      <c r="D224" s="10" t="n">
+      <c r="D224" s="18" t="n">
         <f aca="false">B223-C223</f>
         <v>0.0008</v>
       </c>
@@ -30312,7 +31193,7 @@
       <c r="C225" s="2" t="n">
         <v>-0.001</v>
       </c>
-      <c r="D225" s="10" t="n">
+      <c r="D225" s="18" t="n">
         <f aca="false">B224-C224</f>
         <v>0.0023</v>
       </c>
@@ -30347,7 +31228,7 @@
       <c r="C226" s="2" t="n">
         <v>-0.0003</v>
       </c>
-      <c r="D226" s="10" t="n">
+      <c r="D226" s="18" t="n">
         <f aca="false">B225-C225</f>
         <v>0.017</v>
       </c>
@@ -30382,7 +31263,7 @@
       <c r="C227" s="2" t="n">
         <v>-0.0035</v>
       </c>
-      <c r="D227" s="10" t="n">
+      <c r="D227" s="18" t="n">
         <f aca="false">B226-C226</f>
         <v>0.007</v>
       </c>
@@ -30417,7 +31298,7 @@
       <c r="C228" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="D228" s="10" t="n">
+      <c r="D228" s="18" t="n">
         <f aca="false">B227-C227</f>
         <v>0.0095</v>
       </c>
@@ -30452,7 +31333,7 @@
       <c r="C229" s="2" t="n">
         <v>0.0004</v>
       </c>
-      <c r="D229" s="10" t="n">
+      <c r="D229" s="18" t="n">
         <f aca="false">B228-C228</f>
         <v>0.0057</v>
       </c>
@@ -30487,7 +31368,7 @@
       <c r="C230" s="2" t="n">
         <v>0.0019</v>
       </c>
-      <c r="D230" s="10" t="n">
+      <c r="D230" s="18" t="n">
         <f aca="false">B229-C229</f>
         <v>-0.0005</v>
       </c>
@@ -30522,7 +31403,7 @@
       <c r="C231" s="2" t="n">
         <v>0.0105</v>
       </c>
-      <c r="D231" s="10" t="n">
+      <c r="D231" s="18" t="n">
         <f aca="false">B230-C230</f>
         <v>-0.0054</v>
       </c>
@@ -30557,7 +31438,7 @@
       <c r="C232" s="2" t="n">
         <v>0.0112</v>
       </c>
-      <c r="D232" s="10" t="n">
+      <c r="D232" s="18" t="n">
         <f aca="false">B231-C231</f>
         <v>-0.000700000000000001</v>
       </c>
@@ -30592,7 +31473,7 @@
       <c r="C233" s="2" t="n">
         <v>0.0073</v>
       </c>
-      <c r="D233" s="10" t="n">
+      <c r="D233" s="18" t="n">
         <f aca="false">B232-C232</f>
         <v>0.005</v>
       </c>
@@ -30627,7 +31508,7 @@
       <c r="C234" s="2" t="n">
         <v>0.0044</v>
       </c>
-      <c r="D234" s="10" t="n">
+      <c r="D234" s="18" t="n">
         <f aca="false">B233-C233</f>
         <v>0.0069</v>
       </c>
@@ -30662,7 +31543,7 @@
       <c r="C235" s="2" t="n">
         <v>0.0078</v>
       </c>
-      <c r="D235" s="10" t="n">
+      <c r="D235" s="18" t="n">
         <f aca="false">B234-C234</f>
         <v>0.0092</v>
       </c>
@@ -30697,7 +31578,7 @@
       <c r="C236" s="2" t="n">
         <v>-0.0046</v>
       </c>
-      <c r="D236" s="10" t="n">
+      <c r="D236" s="18" t="n">
         <f aca="false">B235-C235</f>
         <v>0.009</v>
       </c>
@@ -30732,7 +31613,7 @@
       <c r="C237" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D237" s="10" t="n">
+      <c r="D237" s="18" t="n">
         <f aca="false">B236-C236</f>
         <v>0.0156</v>
       </c>
@@ -30767,7 +31648,7 @@
       <c r="C238" s="2" t="n">
         <v>0.0132</v>
       </c>
-      <c r="D238" s="10" t="n">
+      <c r="D238" s="18" t="n">
         <f aca="false">B237-C237</f>
         <v>0.0112</v>
       </c>
@@ -30802,7 +31683,7 @@
       <c r="C239" s="2" t="n">
         <v>0.0024</v>
       </c>
-      <c r="D239" s="10" t="n">
+      <c r="D239" s="18" t="n">
         <f aca="false">B238-C238</f>
         <v>0.000799999999999997</v>
       </c>
@@ -30837,7 +31718,7 @@
       <c r="C240" s="2" t="n">
         <v>0.0045</v>
       </c>
-      <c r="D240" s="10" t="n">
+      <c r="D240" s="18" t="n">
         <f aca="false">B239-C239</f>
         <v>-0.0013</v>
       </c>
@@ -30872,7 +31753,7 @@
       <c r="C241" s="2" t="n">
         <v>-0.0064</v>
       </c>
-      <c r="D241" s="10" t="n">
+      <c r="D241" s="18" t="n">
         <f aca="false">B240-C240</f>
         <v>0.0085</v>
       </c>
@@ -30907,7 +31788,7 @@
       <c r="C242" s="2" t="n">
         <v>0.0016</v>
       </c>
-      <c r="D242" s="10" t="n">
+      <c r="D242" s="18" t="n">
         <f aca="false">B241-C241</f>
         <v>0.0139</v>
       </c>
@@ -30942,7 +31823,7 @@
       <c r="C243" s="2" t="n">
         <v>0.014</v>
       </c>
-      <c r="D243" s="10" t="n">
+      <c r="D243" s="18" t="n">
         <f aca="false">B242-C242</f>
         <v>-0.0196</v>
       </c>
@@ -30977,7 +31858,7 @@
       <c r="C244" s="2" t="n">
         <v>0.0149</v>
       </c>
-      <c r="D244" s="10" t="n">
+      <c r="D244" s="18" t="n">
         <f aca="false">B243-C243</f>
         <v>-0.0494</v>
       </c>
@@ -31012,7 +31893,7 @@
       <c r="C245" s="2" t="n">
         <v>0.006</v>
       </c>
-      <c r="D245" s="10" t="n">
+      <c r="D245" s="18" t="n">
         <f aca="false">B244-C244</f>
         <v>-0.0013</v>
       </c>
@@ -31047,7 +31928,7 @@
       <c r="C246" s="2" t="n">
         <v>0.0063</v>
       </c>
-      <c r="D246" s="10" t="n">
+      <c r="D246" s="18" t="n">
         <f aca="false">B245-C245</f>
         <v>0.0202</v>
       </c>
@@ -31082,7 +31963,7 @@
       <c r="C247" s="2" t="n">
         <v>0.0268</v>
       </c>
-      <c r="D247" s="10" t="n">
+      <c r="D247" s="18" t="n">
         <f aca="false">B246-C246</f>
         <v>-0.0003</v>
       </c>
@@ -31117,7 +31998,7 @@
       <c r="C248" s="2" t="n">
         <v>0.0021</v>
       </c>
-      <c r="D248" s="10" t="n">
+      <c r="D248" s="18" t="n">
         <f aca="false">B247-C247</f>
         <v>-0.0485</v>
       </c>
@@ -31152,7 +32033,7 @@
       <c r="C249" s="2" t="n">
         <v>0.0251</v>
       </c>
-      <c r="D249" s="10" t="n">
+      <c r="D249" s="18" t="n">
         <f aca="false">B248-C248</f>
         <v>0.0008</v>
       </c>
@@ -31187,7 +32068,7 @@
       <c r="C250" s="2" t="n">
         <v>0.0133</v>
       </c>
-      <c r="D250" s="10" t="n">
+      <c r="D250" s="18" t="n">
         <f aca="false">B249-C249</f>
         <v>-0.0384</v>
       </c>
@@ -31222,7 +32103,7 @@
       <c r="C251" s="2" t="n">
         <v>0.0065</v>
       </c>
-      <c r="D251" s="10" t="n">
+      <c r="D251" s="18" t="n">
         <f aca="false">B250-C250</f>
         <v>-0.0269</v>
       </c>
@@ -31257,7 +32138,7 @@
       <c r="C252" s="2" t="n">
         <v>-0.0167</v>
       </c>
-      <c r="D252" s="10" t="n">
+      <c r="D252" s="18" t="n">
         <f aca="false">B251-C251</f>
         <v>-0.0099</v>
       </c>
@@ -31292,7 +32173,7 @@
       <c r="C253" s="2" t="n">
         <v>-0.0095</v>
       </c>
-      <c r="D253" s="10" t="n">
+      <c r="D253" s="18" t="n">
         <f aca="false">B252-C252</f>
         <v>0.0598</v>
       </c>
@@ -31327,7 +32208,7 @@
       <c r="C254" s="2" t="n">
         <v>0.0055</v>
       </c>
-      <c r="D254" s="10" t="n">
+      <c r="D254" s="18" t="n">
         <f aca="false">B253-C253</f>
         <v>0.0131</v>
       </c>
@@ -31362,7 +32243,7 @@
       <c r="C255" s="2" t="n">
         <v>0.0055</v>
       </c>
-      <c r="D255" s="10" t="n">
+      <c r="D255" s="18" t="n">
         <f aca="false">B254-C254</f>
         <v>-0.0335</v>
       </c>
@@ -31397,7 +32278,7 @@
       <c r="C256" s="2" t="n">
         <v>0.0094</v>
       </c>
-      <c r="D256" s="10" t="n">
+      <c r="D256" s="18" t="n">
         <f aca="false">B255-C255</f>
         <v>-0.0188</v>
       </c>
@@ -31432,7 +32313,7 @@
       <c r="C257" s="2" t="n">
         <v>0.0067</v>
       </c>
-      <c r="D257" s="10" t="n">
+      <c r="D257" s="18" t="n">
         <f aca="false">B256-C256</f>
         <v>-0.0059</v>
       </c>
@@ -31467,7 +32348,7 @@
       <c r="C258" s="2" t="n">
         <v>0.0067</v>
       </c>
-      <c r="D258" s="10" t="n">
+      <c r="D258" s="18" t="n">
         <f aca="false">B257-C257</f>
         <v>-0.0865</v>
       </c>
@@ -31502,7 +32383,7 @@
       <c r="C259" s="2" t="n">
         <v>0.037</v>
       </c>
-      <c r="D259" s="10" t="n">
+      <c r="D259" s="18" t="n">
         <f aca="false">B258-C258</f>
         <v>-0.1658</v>
       </c>
@@ -31537,7 +32418,7 @@
       <c r="C260" s="2" t="n">
         <v>0.0197</v>
       </c>
-      <c r="D260" s="10" t="n">
+      <c r="D260" s="18" t="n">
         <f aca="false">B259-C259</f>
         <v>-0.1301</v>
       </c>
@@ -31572,7 +32453,7 @@
       <c r="C261" s="2" t="n">
         <v>-0.0147</v>
       </c>
-      <c r="D261" s="10" t="n">
+      <c r="D261" s="18" t="n">
         <f aca="false">B260-C260</f>
         <v>0.0571</v>
       </c>
@@ -31607,7 +32488,7 @@
       <c r="C262" s="2" t="n">
         <v>-0.0041</v>
       </c>
-      <c r="D262" s="10" t="n">
+      <c r="D262" s="18" t="n">
         <f aca="false">B261-C261</f>
         <v>0.0746</v>
       </c>
@@ -31642,7 +32523,7 @@
       <c r="C263" s="2" t="n">
         <v>0.0161</v>
       </c>
-      <c r="D263" s="10" t="n">
+      <c r="D263" s="18" t="n">
         <f aca="false">B262-C262</f>
         <v>-0.0269</v>
       </c>
@@ -31677,7 +32558,7 @@
       <c r="C264" s="2" t="n">
         <v>-0.011</v>
       </c>
-      <c r="D264" s="10" t="n">
+      <c r="D264" s="18" t="n">
         <f aca="false">B263-C263</f>
         <v>0.0158</v>
       </c>
@@ -31712,7 +32593,7 @@
       <c r="C265" s="2" t="n">
         <v>-0.0066</v>
       </c>
-      <c r="D265" s="10" t="n">
+      <c r="D265" s="18" t="n">
         <f aca="false">B264-C264</f>
         <v>0.132</v>
       </c>
@@ -31747,7 +32628,7 @@
       <c r="C266" s="2" t="n">
         <v>-0.0038</v>
       </c>
-      <c r="D266" s="10" t="n">
+      <c r="D266" s="18" t="n">
         <f aca="false">B265-C265</f>
         <v>0.0739</v>
       </c>
@@ -31782,7 +32663,7 @@
       <c r="C267" s="2" t="n">
         <v>0.0038</v>
       </c>
-      <c r="D267" s="10" t="n">
+      <c r="D267" s="18" t="n">
         <f aca="false">B266-C266</f>
         <v>0.0324</v>
       </c>
@@ -31817,7 +32698,7 @@
       <c r="C268" s="2" t="n">
         <v>0.007</v>
       </c>
-      <c r="D268" s="10" t="n">
+      <c r="D268" s="18" t="n">
         <f aca="false">B267-C267</f>
         <v>0.0571</v>
       </c>
@@ -31852,7 +32733,7 @@
       <c r="C269" s="2" t="n">
         <v>0.0056</v>
       </c>
-      <c r="D269" s="10" t="n">
+      <c r="D269" s="18" t="n">
         <f aca="false">B268-C268</f>
         <v>0.0116</v>
       </c>
@@ -31887,7 +32768,7 @@
       <c r="C270" s="2" t="n">
         <v>0.0019</v>
       </c>
-      <c r="D270" s="10" t="n">
+      <c r="D270" s="18" t="n">
         <f aca="false">B269-C269</f>
         <v>0.0513</v>
       </c>
@@ -31922,7 +32803,7 @@
       <c r="C271" s="2" t="n">
         <v>0.0133</v>
       </c>
-      <c r="D271" s="10" t="n">
+      <c r="D271" s="18" t="n">
         <f aca="false">B270-C270</f>
         <v>0.016</v>
       </c>
@@ -31957,7 +32838,7 @@
       <c r="C272" s="2" t="n">
         <v>-0.021</v>
       </c>
-      <c r="D272" s="10" t="n">
+      <c r="D272" s="18" t="n">
         <f aca="false">B271-C271</f>
         <v>-0.0032</v>
       </c>
@@ -31992,7 +32873,7 @@
       <c r="C273" s="2" t="n">
         <v>0.0142</v>
       </c>
-      <c r="D273" s="10" t="n">
+      <c r="D273" s="18" t="n">
         <f aca="false">B272-C272</f>
         <v>0.0538</v>
       </c>
@@ -32027,7 +32908,7 @@
       <c r="C274" s="2" t="n">
         <v>0.0042</v>
       </c>
-      <c r="D274" s="10" t="n">
+      <c r="D274" s="18" t="n">
         <f aca="false">B273-C273</f>
         <v>-0.0015</v>
       </c>
@@ -32062,7 +32943,7 @@
       <c r="C275" s="2" t="n">
         <v>-0.0068</v>
       </c>
-      <c r="D275" s="10" t="n">
+      <c r="D275" s="18" t="n">
         <f aca="false">B274-C274</f>
         <v>-0.0025</v>
       </c>
@@ -32097,7 +32978,7 @@
       <c r="C276" s="2" t="n">
         <v>0.0078</v>
       </c>
-      <c r="D276" s="10" t="n">
+      <c r="D276" s="18" t="n">
         <f aca="false">B275-C275</f>
         <v>0.0382</v>
       </c>
@@ -32132,7 +33013,7 @@
       <c r="C277" s="2" t="n">
         <v>0.0131</v>
       </c>
-      <c r="D277" s="10" t="n">
+      <c r="D277" s="18" t="n">
         <f aca="false">B276-C276</f>
         <v>0.0156</v>
       </c>
@@ -32167,7 +33048,7 @@
       <c r="C278" s="2" t="n">
         <v>0.0143</v>
       </c>
-      <c r="D278" s="10" t="n">
+      <c r="D278" s="18" t="n">
         <f aca="false">B277-C277</f>
         <v>-0.049</v>
       </c>
@@ -32202,7 +33083,7 @@
       <c r="C279" s="2" t="n">
         <v>0.0078</v>
       </c>
-      <c r="D279" s="10" t="n">
+      <c r="D279" s="18" t="n">
         <f aca="false">B278-C278</f>
         <v>-0.0019</v>
       </c>
@@ -32237,7 +33118,7 @@
       <c r="C280" s="2" t="n">
         <v>0.0126</v>
       </c>
-      <c r="D280" s="10" t="n">
+      <c r="D280" s="18" t="n">
         <f aca="false">B279-C279</f>
         <v>0.0278</v>
       </c>
@@ -32272,7 +33153,7 @@
       <c r="C281" s="2" t="n">
         <v>0.0028</v>
       </c>
-      <c r="D281" s="10" t="n">
+      <c r="D281" s="18" t="n">
         <f aca="false">B280-C280</f>
         <v>-0.0122</v>
       </c>
@@ -32307,7 +33188,7 @@
       <c r="C282" s="2" t="n">
         <v>0.0034</v>
       </c>
-      <c r="D282" s="10" t="n">
+      <c r="D282" s="18" t="n">
         <f aca="false">B281-C281</f>
         <v>0.0273</v>
       </c>
@@ -32342,7 +33223,7 @@
       <c r="C283" s="2" t="n">
         <v>-0.006</v>
       </c>
-      <c r="D283" s="10" t="n">
+      <c r="D283" s="18" t="n">
         <f aca="false">B282-C282</f>
         <v>0.0224</v>
       </c>
@@ -32377,7 +33258,7 @@
       <c r="C284" s="2" t="n">
         <v>-0.0151</v>
       </c>
-      <c r="D284" s="10" t="n">
+      <c r="D284" s="18" t="n">
         <f aca="false">B283-C283</f>
         <v>-0.0057</v>
       </c>
@@ -32412,7 +33293,7 @@
       <c r="C285" s="2" t="n">
         <v>0.003</v>
       </c>
-      <c r="D285" s="10" t="n">
+      <c r="D285" s="18" t="n">
         <f aca="false">B284-C284</f>
         <v>0.0332</v>
       </c>
@@ -32447,7 +33328,7 @@
       <c r="C286" s="2" t="n">
         <v>-0.0026</v>
       </c>
-      <c r="D286" s="10" t="n">
+      <c r="D286" s="18" t="n">
         <f aca="false">B285-C285</f>
         <v>0.0191</v>
       </c>
@@ -32482,7 +33363,7 @@
       <c r="C287" s="2" t="n">
         <v>-0.0007</v>
       </c>
-      <c r="D287" s="10" t="n">
+      <c r="D287" s="18" t="n">
         <f aca="false">B286-C286</f>
         <v>0.0157</v>
       </c>
@@ -32517,7 +33398,7 @@
       <c r="C288" s="2" t="n">
         <v>0.0104</v>
       </c>
-      <c r="D288" s="10" t="n">
+      <c r="D288" s="18" t="n">
         <f aca="false">B287-C287</f>
         <v>0.0039</v>
       </c>
@@ -32552,7 +33433,7 @@
       <c r="C289" s="2" t="n">
         <v>0.0126</v>
       </c>
-      <c r="D289" s="10" t="n">
+      <c r="D289" s="18" t="n">
         <f aca="false">B288-C288</f>
         <v>0.0051</v>
       </c>
@@ -32587,7 +33468,7 @@
       <c r="C290" s="2" t="n">
         <v>-0.0008</v>
       </c>
-      <c r="D290" s="10" t="n">
+      <c r="D290" s="18" t="n">
         <f aca="false">B289-C289</f>
         <v>-0.0077</v>
       </c>
@@ -32622,7 +33503,7 @@
       <c r="C291" s="2" t="n">
         <v>0.0142</v>
       </c>
-      <c r="D291" s="10" t="n">
+      <c r="D291" s="18" t="n">
         <f aca="false">B290-C290</f>
         <v>-0.0089</v>
       </c>
@@ -32657,7 +33538,7 @@
       <c r="C292" s="2" t="n">
         <v>0.0177</v>
       </c>
-      <c r="D292" s="10" t="n">
+      <c r="D292" s="18" t="n">
         <f aca="false">B291-C291</f>
         <v>-0.0026</v>
       </c>
@@ -32692,7 +33573,7 @@
       <c r="C293" s="2" t="n">
         <v>0.0031</v>
       </c>
-      <c r="D293" s="10" t="n">
+      <c r="D293" s="18" t="n">
         <f aca="false">B292-C292</f>
         <v>-0.0577</v>
       </c>
@@ -32727,7 +33608,7 @@
       <c r="C294" s="2" t="n">
         <v>-0.0023</v>
       </c>
-      <c r="D294" s="10" t="n">
+      <c r="D294" s="18" t="n">
         <f aca="false">B293-C293</f>
         <v>-0.0358</v>
       </c>
@@ -32762,7 +33643,7 @@
       <c r="C295" s="2" t="n">
         <v>0.0037</v>
       </c>
-      <c r="D295" s="10" t="n">
+      <c r="D295" s="18" t="n">
         <f aca="false">B294-C294</f>
         <v>0.0622</v>
       </c>
@@ -32797,7 +33678,7 @@
       <c r="C296" s="2" t="n">
         <v>0.0057</v>
       </c>
-      <c r="D296" s="10" t="n">
+      <c r="D296" s="18" t="n">
         <f aca="false">B295-C295</f>
         <v>-0.0253</v>
       </c>
@@ -32832,7 +33713,7 @@
       <c r="C297" s="2" t="n">
         <v>0.0051</v>
       </c>
-      <c r="D297" s="10" t="n">
+      <c r="D297" s="18" t="n">
         <f aca="false">B296-C296</f>
         <v>0.0209</v>
       </c>
@@ -32867,7 +33748,7 @@
       <c r="C298" s="2" t="n">
         <v>-0.0047</v>
       </c>
-      <c r="D298" s="10" t="n">
+      <c r="D298" s="18" t="n">
         <f aca="false">B297-C297</f>
         <v>0.0253</v>
       </c>
@@ -32902,7 +33783,7 @@
       <c r="C299" s="2" t="n">
         <v>-0.0052</v>
       </c>
-      <c r="D299" s="10" t="n">
+      <c r="D299" s="18" t="n">
         <f aca="false">B298-C298</f>
         <v>0.0284</v>
       </c>
@@ -32937,7 +33818,7 @@
       <c r="C300" s="2" t="n">
         <v>0.0098</v>
       </c>
-      <c r="D300" s="10" t="n">
+      <c r="D300" s="18" t="n">
         <f aca="false">B299-C299</f>
         <v>0.0038</v>
       </c>
@@ -32972,7 +33853,7 @@
       <c r="C301" s="2" t="n">
         <v>0.0075</v>
       </c>
-      <c r="D301" s="10" t="n">
+      <c r="D301" s="18" t="n">
         <f aca="false">B300-C300</f>
         <v>0.000700000000000001</v>
       </c>
@@ -33007,7 +33888,7 @@
       <c r="C302" s="2" t="n">
         <v>-0.0017</v>
       </c>
-      <c r="D302" s="10" t="n">
+      <c r="D302" s="18" t="n">
         <f aca="false">B301-C301</f>
         <v>-0.0206</v>
       </c>
@@ -33042,7 +33923,7 @@
       <c r="C303" s="2" t="n">
         <v>0.0061</v>
       </c>
-      <c r="D303" s="10" t="n">
+      <c r="D303" s="18" t="n">
         <f aca="false">B302-C302</f>
         <v>0.0228</v>
       </c>
@@ -33077,7 +33958,7 @@
       <c r="C304" s="2" t="n">
         <v>0.0003</v>
       </c>
-      <c r="D304" s="10" t="n">
+      <c r="D304" s="18" t="n">
         <f aca="false">B303-C303</f>
         <v>0.0129</v>
       </c>
@@ -33112,7 +33993,7 @@
       <c r="C305" s="2" t="n">
         <v>-0.0003</v>
       </c>
-      <c r="D305" s="10" t="n">
+      <c r="D305" s="18" t="n">
         <f aca="false">B304-C304</f>
         <v>0.0114</v>
       </c>
@@ -33147,7 +34028,7 @@
       <c r="C306" s="2" t="n">
         <v>-0.0018</v>
       </c>
-      <c r="D306" s="10" t="n">
+      <c r="D306" s="18" t="n">
         <f aca="false">B305-C305</f>
         <v>0.0142</v>
       </c>
@@ -33182,7 +34063,7 @@
       <c r="C307" s="2" t="n">
         <v>0.0039</v>
       </c>
-      <c r="D307" s="10" t="n">
+      <c r="D307" s="18" t="n">
         <f aca="false">B306-C306</f>
         <v>0.0106</v>
       </c>
@@ -33217,7 +34098,7 @@
       <c r="C308" s="2" t="n">
         <v>-0.002</v>
       </c>
-      <c r="D308" s="10" t="n">
+      <c r="D308" s="18" t="n">
         <f aca="false">B307-C307</f>
         <v>0.0041</v>
       </c>
@@ -33252,7 +34133,7 @@
       <c r="C309" s="2" t="n">
         <v>-0.0041</v>
       </c>
-      <c r="D309" s="10" t="n">
+      <c r="D309" s="18" t="n">
         <f aca="false">B308-C308</f>
         <v>0.0178</v>
       </c>
@@ -33287,7 +34168,7 @@
       <c r="C310" s="2" t="n">
         <v>0.0042</v>
       </c>
-      <c r="D310" s="10" t="n">
+      <c r="D310" s="18" t="n">
         <f aca="false">B309-C309</f>
         <v>0.0175</v>
       </c>
@@ -33322,7 +34203,7 @@
       <c r="C311" s="2" t="n">
         <v>0.0013</v>
       </c>
-      <c r="D311" s="10" t="n">
+      <c r="D311" s="18" t="n">
         <f aca="false">B310-C310</f>
         <v>0.000900000000000001</v>
       </c>
@@ -33357,7 +34238,7 @@
       <c r="C312" s="2" t="n">
         <v>0.0045</v>
       </c>
-      <c r="D312" s="10" t="n">
+      <c r="D312" s="18" t="n">
         <f aca="false">B311-C311</f>
         <v>0.0089</v>
       </c>
@@ -33392,7 +34273,7 @@
       <c r="C313" s="2" t="n">
         <v>-0.0106</v>
       </c>
-      <c r="D313" s="10" t="n">
+      <c r="D313" s="18" t="n">
         <f aca="false">B312-C312</f>
         <v>0.0136</v>
       </c>
@@ -33427,7 +34308,7 @@
       <c r="C314" s="2" t="n">
         <v>-0.0082</v>
       </c>
-      <c r="D314" s="10" t="n">
+      <c r="D314" s="18" t="n">
         <f aca="false">B313-C313</f>
         <v>0.0048</v>
       </c>
@@ -33462,7 +34343,7 @@
       <c r="C315" s="2" t="n">
         <v>0.0012</v>
       </c>
-      <c r="D315" s="10" t="n">
+      <c r="D315" s="18" t="n">
         <f aca="false">B314-C314</f>
         <v>-0.018</v>
       </c>
@@ -33497,7 +34378,7 @@
       <c r="C316" s="2" t="n">
         <v>-0.0045</v>
       </c>
-      <c r="D316" s="10" t="n">
+      <c r="D316" s="18" t="n">
         <f aca="false">B315-C315</f>
         <v>0.0178</v>
       </c>
@@ -33532,7 +34413,7 @@
       <c r="C317" s="2" t="n">
         <v>0.0074</v>
       </c>
-      <c r="D317" s="10" t="n">
+      <c r="D317" s="18" t="n">
         <f aca="false">B316-C316</f>
         <v>-0.0016</v>
       </c>
@@ -33567,7 +34448,7 @@
       <c r="C318" s="2" t="n">
         <v>0.0038</v>
       </c>
-      <c r="D318" s="10" t="n">
+      <c r="D318" s="18" t="n">
         <f aca="false">B317-C317</f>
         <v>0.0025</v>
       </c>
@@ -33602,7 +34483,7 @@
       <c r="C319" s="2" t="n">
         <v>-0.0006</v>
       </c>
-      <c r="D319" s="10" t="n">
+      <c r="D319" s="18" t="n">
         <f aca="false">B318-C318</f>
         <v>0.0213</v>
       </c>
@@ -33637,7 +34518,7 @@
       <c r="C320" s="2" t="n">
         <v>-0.0078</v>
       </c>
-      <c r="D320" s="10" t="n">
+      <c r="D320" s="18" t="n">
         <f aca="false">B319-C319</f>
         <v>0.0057</v>
       </c>
@@ -33672,7 +34553,7 @@
       <c r="C321" s="2" t="n">
         <v>0.0085</v>
       </c>
-      <c r="D321" s="10" t="n">
+      <c r="D321" s="18" t="n">
         <f aca="false">B320-C320</f>
         <v>0.0132</v>
       </c>
@@ -33707,7 +34588,7 @@
       <c r="C322" s="2" t="n">
         <v>0.002</v>
       </c>
-      <c r="D322" s="10" t="n">
+      <c r="D322" s="18" t="n">
         <f aca="false">B321-C321</f>
         <v>-0.0015</v>
       </c>
@@ -33742,7 +34623,7 @@
       <c r="C323" s="2" t="n">
         <v>-0.0041</v>
       </c>
-      <c r="D323" s="10" t="n">
+      <c r="D323" s="18" t="n">
         <f aca="false">B322-C322</f>
         <v>0.0182</v>
       </c>
@@ -33777,7 +34658,7 @@
       <c r="C324" s="2" t="n">
         <v>0.0036</v>
       </c>
-      <c r="D324" s="10" t="n">
+      <c r="D324" s="18" t="n">
         <f aca="false">B323-C323</f>
         <v>0.0065</v>
       </c>
@@ -33812,7 +34693,7 @@
       <c r="C325" s="2" t="n">
         <v>0.0069</v>
       </c>
-      <c r="D325" s="10" t="n">
+      <c r="D325" s="18" t="n">
         <f aca="false">B324-C324</f>
         <v>0.0027</v>
       </c>
@@ -33847,7 +34728,7 @@
       <c r="C326" s="2" t="n">
         <v>-0.0013</v>
       </c>
-      <c r="D326" s="10" t="n">
+      <c r="D326" s="18" t="n">
         <f aca="false">B325-C325</f>
         <v>0.0023</v>
       </c>
@@ -33882,7 +34763,7 @@
       <c r="C327" s="2" t="n">
         <v>-0.0026</v>
       </c>
-      <c r="D327" s="10" t="n">
+      <c r="D327" s="18" t="n">
         <f aca="false">B326-C326</f>
         <v>0.0097</v>
       </c>
@@ -33917,7 +34798,7 @@
       <c r="C328" s="2" t="n">
         <v>0.0064</v>
       </c>
-      <c r="D328" s="10" t="n">
+      <c r="D328" s="18" t="n">
         <f aca="false">B327-C327</f>
         <v>-0.0107</v>
       </c>
@@ -33952,7 +34833,7 @@
       <c r="C329" s="2" t="n">
         <v>-0.0036</v>
       </c>
-      <c r="D329" s="10" t="n">
+      <c r="D329" s="18" t="n">
         <f aca="false">B328-C328</f>
         <v>0.0095</v>
       </c>
@@ -33987,7 +34868,7 @@
       <c r="C330" s="2" t="n">
         <v>0.0072</v>
       </c>
-      <c r="D330" s="10" t="n">
+      <c r="D330" s="18" t="n">
         <f aca="false">B329-C329</f>
         <v>-0.0173</v>
       </c>
@@ -34022,7 +34903,7 @@
       <c r="C331" s="2" t="n">
         <v>0.0052</v>
       </c>
-      <c r="D331" s="10" t="n">
+      <c r="D331" s="18" t="n">
         <f aca="false">B330-C330</f>
         <v>0.0047</v>
       </c>
@@ -34057,7 +34938,7 @@
       <c r="C332" s="2" t="n">
         <v>-0.0027</v>
       </c>
-      <c r="D332" s="10" t="n">
+      <c r="D332" s="18" t="n">
         <f aca="false">B331-C331</f>
         <v>-0.0125</v>
       </c>
@@ -34092,7 +34973,7 @@
       <c r="C333" s="2" t="n">
         <v>0.0165</v>
       </c>
-      <c r="D333" s="10" t="n">
+      <c r="D333" s="18" t="n">
         <f aca="false">B332-C332</f>
         <v>-0.0118</v>
       </c>
@@ -34127,7 +35008,7 @@
       <c r="C334" s="2" t="n">
         <v>-0.009</v>
       </c>
-      <c r="D334" s="10" t="n">
+      <c r="D334" s="18" t="n">
         <f aca="false">B333-C333</f>
         <v>-0.0099</v>
       </c>
@@ -34162,7 +35043,7 @@
       <c r="C335" s="2" t="n">
         <v>0.0054</v>
       </c>
-      <c r="D335" s="10" t="n">
+      <c r="D335" s="18" t="n">
         <f aca="false">B334-C334</f>
         <v>0.0331</v>
       </c>
@@ -34197,7 +35078,7 @@
       <c r="C336" s="2" t="n">
         <v>-0.001</v>
       </c>
-      <c r="D336" s="10" t="n">
+      <c r="D336" s="18" t="n">
         <f aca="false">B335-C335</f>
         <v>-0.0109</v>
       </c>
@@ -34232,7 +35113,7 @@
       <c r="C337" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="D337" s="10" t="n">
+      <c r="D337" s="18" t="n">
         <f aca="false">B336-C336</f>
         <v>0.0131</v>
       </c>
@@ -34267,7 +35148,7 @@
       <c r="C338" s="2" t="n">
         <v>-0.0041</v>
       </c>
-      <c r="D338" s="10" t="n">
+      <c r="D338" s="18" t="n">
         <f aca="false">B337-C337</f>
         <v>0.0025</v>
       </c>
@@ -34302,7 +35183,7 @@
       <c r="C339" s="2" t="n">
         <v>0.0042</v>
       </c>
-      <c r="D339" s="10" t="n">
+      <c r="D339" s="18" t="n">
         <f aca="false">B338-C338</f>
         <v>-0.0108</v>
       </c>
@@ -34337,7 +35218,7 @@
       <c r="C340" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="D340" s="10" t="n">
+      <c r="D340" s="18" t="n">
         <f aca="false">B339-C339</f>
         <v>-0.01</v>
       </c>
@@ -34372,7 +35253,7 @@
       <c r="C341" s="2" t="n">
         <v>0.0077</v>
       </c>
-      <c r="D341" s="10" t="n">
+      <c r="D341" s="18" t="n">
         <f aca="false">B340-C340</f>
         <v>-0.0179</v>
       </c>
@@ -34407,7 +35288,7 @@
       <c r="C342" s="2" t="n">
         <v>-0.0034</v>
       </c>
-      <c r="D342" s="10" t="n">
+      <c r="D342" s="18" t="n">
         <f aca="false">B341-C341</f>
         <v>-0.0337</v>
       </c>
@@ -34442,7 +35323,7 @@
       <c r="C343" s="2" t="n">
         <v>-0.0034</v>
       </c>
-      <c r="D343" s="10" t="n">
+      <c r="D343" s="18" t="n">
         <f aca="false">B342-C342</f>
         <v>0.0309</v>
       </c>
@@ -34477,7 +35358,7 @@
       <c r="C344" s="2" t="n">
         <v>-0.0019</v>
       </c>
-      <c r="D344" s="10" t="n">
+      <c r="D344" s="18" t="n">
         <f aca="false">B343-C343</f>
         <v>-0.0188</v>
       </c>
@@ -34512,7 +35393,7 @@
       <c r="C345" s="2" t="n">
         <v>0.0163</v>
       </c>
-      <c r="D345" s="10" t="n">
+      <c r="D345" s="18" t="n">
         <f aca="false">B344-C344</f>
         <v>-0.0233</v>
       </c>
@@ -34547,7 +35428,7 @@
       <c r="C346" s="2" t="n">
         <v>0.0052</v>
       </c>
-      <c r="D346" s="10" t="n">
+      <c r="D346" s="18" t="n">
         <f aca="false">B345-C345</f>
         <v>-0.0324</v>
       </c>
@@ -34582,7 +35463,7 @@
       <c r="C347" s="2" t="n">
         <v>0.0019</v>
       </c>
-      <c r="D347" s="10" t="n">
+      <c r="D347" s="18" t="n">
         <f aca="false">B346-C346</f>
         <v>0.0005</v>
       </c>
@@ -34617,7 +35498,7 @@
       <c r="C348" s="2" t="n">
         <v>-0.0003</v>
       </c>
-      <c r="D348" s="10" t="n">
+      <c r="D348" s="18" t="n">
         <f aca="false">B347-C347</f>
         <v>0.0425</v>
       </c>
@@ -34652,7 +35533,7 @@
       <c r="C349" s="2" t="n">
         <v>-0.0015</v>
       </c>
-      <c r="D349" s="10" t="n">
+      <c r="D349" s="18" t="n">
         <f aca="false">B348-C348</f>
         <v>0.0394</v>
       </c>
@@ -34678,7 +35559,7 @@
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D350" s="10" t="n">
+      <c r="D350" s="18" t="n">
         <f aca="false">B349-C349</f>
         <v>0.0077</v>
       </c>
